--- a/finale.xlsx
+++ b/finale.xlsx
@@ -2680,10 +2680,10 @@
         <v>187689</v>
       </c>
       <c r="D5" s="119" t="n">
-        <v>490833.333333333</v>
+        <v>516666.666666667</v>
       </c>
       <c r="E5" s="127" t="n">
-        <v>-0.6176115449915107</v>
+        <v>-0.6367309677419357</v>
       </c>
       <c r="F5" s="119" t="n">
         <v>38762.525</v>
@@ -2704,10 +2704,10 @@
         <v>33822</v>
       </c>
       <c r="D6" s="119" t="n">
-        <v>39583.3333333333</v>
+        <v>41666.6666666667</v>
       </c>
       <c r="E6" s="127" t="n">
-        <v>-0.1455494736842098</v>
+        <v>-0.1882720000000007</v>
       </c>
       <c r="F6" s="119" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>17270</v>
       </c>
       <c r="D7" s="115" t="n">
-        <v>44333.3333333333</v>
+        <v>46666.6666666667</v>
       </c>
       <c r="E7" s="127" t="n">
-        <v>-0.6104511278195486</v>
+        <v>-0.6299285714285716</v>
       </c>
       <c r="F7" s="115" t="n">
         <v>564.525</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="C8" s="111" t="n">
-        <v>652473</v>
+        <v>651449</v>
       </c>
       <c r="D8" s="111" t="n">
-        <v>1029166.66666667</v>
+        <v>1083333.33333333</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>-0.3660181376518239</v>
+        <v>-0.3986624615384596</v>
       </c>
       <c r="F8" s="111" t="n">
-        <v>257602.105666667</v>
+        <v>256578.355666667</v>
       </c>
     </row>
     <row r="9" ht="12.75" customFormat="1" customHeight="1" s="128" thickBot="1">
@@ -2776,13 +2776,13 @@
         <v>213979</v>
       </c>
       <c r="D9" s="124" t="n">
-        <v>316666.666666667</v>
+        <v>333333.333333333</v>
       </c>
       <c r="E9" s="123" t="n">
-        <v>-0.3242768421052639</v>
+        <v>-0.3580629999999994</v>
       </c>
       <c r="F9" s="122" t="n">
-        <v>42125.878125</v>
+        <v>12994.003125</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" s="304">
@@ -2800,13 +2800,13 @@
         <v>10419</v>
       </c>
       <c r="D10" s="119" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E10" s="127" t="n">
-        <v>-0.3419578947368407</v>
+        <v>-0.3748600000000013</v>
       </c>
       <c r="F10" s="119" t="n">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" s="304">
@@ -2821,16 +2821,16 @@
         </is>
       </c>
       <c r="C11" s="119" t="n">
-        <v>54982</v>
+        <v>54981</v>
       </c>
       <c r="D11" s="119" t="n">
-        <v>39583.3333333333</v>
+        <v>41666.6666666667</v>
       </c>
       <c r="E11" s="127" t="n">
-        <v>0.3890189473684222</v>
+        <v>0.3195439999999989</v>
       </c>
       <c r="F11" s="119" t="n">
-        <v>8756.083333333339</v>
+        <v>8326.86666666667</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" s="304">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="119" t="n">
-        <v>12720</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="304">
@@ -2920,13 +2920,13 @@
         <v>572197</v>
       </c>
       <c r="D15" s="111" t="n">
-        <v>791666.666666667</v>
+        <v>833333.333333333</v>
       </c>
       <c r="E15" s="112" t="n">
-        <v>-0.2772248421052634</v>
+        <v>-0.3133635999999997</v>
       </c>
       <c r="F15" s="111" t="n">
-        <v>140151.594791667</v>
+        <v>64818.8364583333</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -2944,10 +2944,10 @@
         <v>222877</v>
       </c>
       <c r="D16" s="124" t="n">
-        <v>237500</v>
+        <v>250000</v>
       </c>
       <c r="E16" s="123" t="n">
-        <v>-0.06157052631578952</v>
+        <v>-0.108492</v>
       </c>
       <c r="F16" s="122" t="n">
         <v>-197.5</v>
@@ -2968,10 +2968,10 @@
         <v>30285</v>
       </c>
       <c r="D17" s="119" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E17" s="127" t="n">
-        <v>0.9127368421052673</v>
+        <v>0.8170999999999964</v>
       </c>
       <c r="F17" s="119" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>107938</v>
       </c>
       <c r="D18" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="127" t="n">
-        <v>3.544757894736842</v>
+        <v>3.31752</v>
       </c>
       <c r="F18" s="119" t="n">
         <v>19583.7583333333</v>
@@ -3016,10 +3016,10 @@
         <v>710609</v>
       </c>
       <c r="D19" s="119" t="n">
-        <v>79166.6666666667</v>
+        <v>83333.3333333333</v>
       </c>
       <c r="E19" s="127" t="n">
-        <v>7.976113684210523</v>
+        <v>7.527308000000003</v>
       </c>
       <c r="F19" s="119" t="n">
         <v>42441</v>
@@ -3040,10 +3040,10 @@
         <v>37717</v>
       </c>
       <c r="D20" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E20" s="127" t="n">
-        <v>0.5880842105263158</v>
+        <v>0.50868</v>
       </c>
       <c r="F20" s="119" t="n">
         <v>424</v>
@@ -3064,10 +3064,10 @@
         <v>10619</v>
       </c>
       <c r="D21" s="115" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E21" s="127" t="n">
-        <v>-0.7764421052631579</v>
+        <v>-0.78762</v>
       </c>
       <c r="F21" s="115" t="n">
         <v>2194.01666666667</v>
@@ -3088,10 +3088,10 @@
         <v>1988176</v>
       </c>
       <c r="D22" s="111" t="n">
-        <v>1345833.33333333</v>
+        <v>1416666.66666667</v>
       </c>
       <c r="E22" s="112" t="n">
-        <v>0.4772824767801893</v>
+        <v>0.4034183529411732</v>
       </c>
       <c r="F22" s="111" t="n">
         <v>97765.1583333333</v>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="C23" s="124" t="n">
-        <v>13985</v>
+        <v>20661</v>
       </c>
       <c r="D23" s="124" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="122" t="n">
-        <v>0</v>
+        <v>6676.79291666667</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" s="304">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="C24" s="119" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="D24" s="119" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="119" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" s="304">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C25" s="119" t="n">
-        <v>20458</v>
+        <v>23063</v>
       </c>
       <c r="D25" s="119" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="119" t="n">
-        <v>18946.4275</v>
+        <v>21551.0199558333</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" s="304">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C26" s="119" t="n">
-        <v>262590</v>
+        <v>281019</v>
       </c>
       <c r="D26" s="119" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="119" t="n">
-        <v>48452.7141666667</v>
+        <v>66881.98083333331</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" s="304">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C27" s="119" t="n">
-        <v>69099</v>
+        <v>82201</v>
       </c>
       <c r="D27" s="119" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="119" t="n">
-        <v>28053</v>
+        <v>41155.72</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" s="304">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="C29" s="111" t="n">
-        <v>682774</v>
+        <v>748241</v>
       </c>
       <c r="D29" s="111" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="111" t="n">
-        <v>189812.262499167</v>
+        <v>255279.448246667</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -3280,10 +3280,10 @@
         <v>12917</v>
       </c>
       <c r="D30" s="124" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E30" s="123" t="n">
-        <v>-0.4561263157894737</v>
+        <v>-0.48332</v>
       </c>
       <c r="F30" s="122" t="n">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>760</v>
       </c>
       <c r="D31" s="119" t="n">
-        <v>3958.33333333333</v>
+        <v>4166.66666666667</v>
       </c>
       <c r="E31" s="127" t="n">
-        <v>-0.8079999999999998</v>
+        <v>-0.8176000000000001</v>
       </c>
       <c r="F31" s="119" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         </is>
       </c>
       <c r="C32" s="119" t="n">
-        <v>23571</v>
+        <v>21865</v>
       </c>
       <c r="D32" s="119" t="n">
-        <v>20583.3333333333</v>
+        <v>21666.6666666667</v>
       </c>
       <c r="E32" s="127" t="n">
-        <v>0.145149797570852</v>
+        <v>0.009153846153844514</v>
       </c>
       <c r="F32" s="119" t="n">
         <v>206.666666666667</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="C36" s="111" t="n">
-        <v>49036</v>
+        <v>47330</v>
       </c>
       <c r="D36" s="111" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="E36" s="112" t="n">
-        <v>-0.4838315789473684</v>
+        <v>-0.5266999999999999</v>
       </c>
       <c r="F36" s="111" t="n">
         <v>292.166666666667</v>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C37" s="124" t="n">
-        <v>1258</v>
+        <v>1555</v>
       </c>
       <c r="D37" s="124" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="C39" s="119" t="n">
-        <v>2402</v>
+        <v>4983</v>
       </c>
       <c r="D39" s="119" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C40" s="119" t="n">
-        <v>18976</v>
+        <v>20441</v>
       </c>
       <c r="D40" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E40" s="127" t="n">
-        <v>-0.2010105263157895</v>
+        <v>-0.18236</v>
       </c>
       <c r="F40" s="119" t="n">
         <v>0</v>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C41" s="119" t="n">
-        <v>18708</v>
+        <v>19711</v>
       </c>
       <c r="D41" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E41" s="127" t="n">
-        <v>-0.2122947368421053</v>
+        <v>-0.21156</v>
       </c>
       <c r="F41" s="119" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         </is>
       </c>
       <c r="C42" s="115" t="n">
-        <v>5644</v>
+        <v>6178</v>
       </c>
       <c r="D42" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E42" s="127" t="n">
-        <v>-0.5247157894736842</v>
+        <v>-0.50576</v>
       </c>
       <c r="F42" s="115" t="n">
         <v>0</v>
@@ -3589,13 +3589,13 @@
         </is>
       </c>
       <c r="C43" s="111" t="n">
-        <v>61307</v>
+        <v>68010</v>
       </c>
       <c r="D43" s="111" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="E43" s="112" t="n">
-        <v>-0.3546631578947368</v>
+        <v>-0.3199</v>
       </c>
       <c r="F43" s="111" t="n">
         <v>0</v>
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="C44" s="124" t="n">
-        <v>23189</v>
+        <v>23410</v>
       </c>
       <c r="D44" s="124" t="n">
-        <v>45125</v>
+        <v>47500</v>
       </c>
       <c r="E44" s="123" t="n">
-        <v>-0.4861163434903047</v>
+        <v>-0.507157894736842</v>
       </c>
       <c r="F44" s="122" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="C45" s="119" t="n">
-        <v>3131</v>
+        <v>3348</v>
       </c>
       <c r="D45" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E45" s="127" t="n">
-        <v>-0.6045052631578949</v>
+        <v>-0.5982399999999999</v>
       </c>
       <c r="F45" s="119" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         </is>
       </c>
       <c r="C46" s="119" t="n">
-        <v>25073</v>
+        <v>27123</v>
       </c>
       <c r="D46" s="119" t="n">
-        <v>44333.3333333333</v>
+        <v>46666.6666666667</v>
       </c>
       <c r="E46" s="127" t="n">
-        <v>-0.434443609022556</v>
+        <v>-0.4187928571428575</v>
       </c>
       <c r="F46" s="119" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         </is>
       </c>
       <c r="C50" s="111" t="n">
-        <v>78078</v>
+        <v>81240</v>
       </c>
       <c r="D50" s="111" t="n">
-        <v>126666.666666667</v>
+        <v>133333.333333333</v>
       </c>
       <c r="E50" s="112" t="n">
-        <v>-0.3835947368421069</v>
+        <v>-0.3906999999999985</v>
       </c>
       <c r="F50" s="111" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C54" s="119" t="n">
-        <v>24427</v>
+        <v>24598</v>
       </c>
       <c r="D54" s="119" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E54" s="127" t="n">
-        <v>-0.2286210526315797</v>
+        <v>-0.2620599999999993</v>
       </c>
       <c r="F54" s="119" t="n">
         <v>0</v>
@@ -3877,13 +3877,13 @@
         </is>
       </c>
       <c r="C55" s="119" t="n">
-        <v>12497</v>
+        <v>12627</v>
       </c>
       <c r="D55" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E55" s="127" t="n">
-        <v>-0.4738105263157895</v>
+        <v>-0.49492</v>
       </c>
       <c r="F55" s="119" t="n">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>2441</v>
       </c>
       <c r="D56" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E56" s="127" t="n">
-        <v>-0.7944421052631578</v>
+        <v>-0.80472</v>
       </c>
       <c r="F56" s="115" t="n">
         <v>0</v>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="C57" s="111" t="n">
-        <v>55207</v>
+        <v>56006</v>
       </c>
       <c r="D57" s="111" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="E57" s="112" t="n">
-        <v>-0.4188736842105263</v>
+        <v>-0.43994</v>
       </c>
       <c r="F57" s="111" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         </is>
       </c>
       <c r="C58" s="124" t="n">
-        <v>27377</v>
+        <v>28339</v>
       </c>
       <c r="D58" s="124" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E58" s="123" t="n">
-        <v>0.1527157894736841</v>
+        <v>0.1335599999999999</v>
       </c>
       <c r="F58" s="122" t="n">
         <v>0</v>
@@ -3973,13 +3973,13 @@
         </is>
       </c>
       <c r="C59" s="119" t="n">
-        <v>2329</v>
+        <v>2491</v>
       </c>
       <c r="D59" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E59" s="127" t="n">
-        <v>-0.7058105263157897</v>
+        <v>-0.7010799999999999</v>
       </c>
       <c r="F59" s="119" t="n">
         <v>0</v>
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="C60" s="119" t="n">
-        <v>8034</v>
+        <v>8056</v>
       </c>
       <c r="D60" s="119" t="n">
-        <v>25333.3333333333</v>
+        <v>26666.6666666667</v>
       </c>
       <c r="E60" s="127" t="n">
-        <v>-0.6828684210526312</v>
+        <v>-0.6979000000000004</v>
       </c>
       <c r="F60" s="119" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C61" s="119" t="n">
-        <v>15642</v>
+        <v>17006</v>
       </c>
       <c r="D61" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="127" t="n">
-        <v>-0.3413894736842106</v>
+        <v>-0.31976</v>
       </c>
       <c r="F61" s="119" t="n">
         <v>0</v>
@@ -4045,13 +4045,13 @@
         </is>
       </c>
       <c r="C62" s="119" t="n">
-        <v>17305</v>
+        <v>17758</v>
       </c>
       <c r="D62" s="119" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E62" s="127" t="n">
-        <v>0.09294736842105489</v>
+        <v>0.06547999999999776</v>
       </c>
       <c r="F62" s="119" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>6167</v>
       </c>
       <c r="D63" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E63" s="127" t="n">
-        <v>-0.4806736842105264</v>
+        <v>-0.50664</v>
       </c>
       <c r="F63" s="115" t="n">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         </is>
       </c>
       <c r="C64" s="111" t="n">
-        <v>107814</v>
+        <v>112111</v>
       </c>
       <c r="D64" s="111" t="n">
-        <v>118750</v>
+        <v>125000</v>
       </c>
       <c r="E64" s="112" t="n">
-        <v>-0.09209263157894731</v>
+        <v>-0.103112</v>
       </c>
       <c r="F64" s="111" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         </is>
       </c>
       <c r="C65" s="124" t="n">
-        <v>31337</v>
+        <v>32381</v>
       </c>
       <c r="D65" s="124" t="n">
-        <v>35625</v>
+        <v>37500</v>
       </c>
       <c r="E65" s="123" t="n">
-        <v>-0.1203649122807018</v>
+        <v>-0.1365066666666667</v>
       </c>
       <c r="F65" s="122" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C66" s="119" t="n">
-        <v>1862</v>
+        <v>2106</v>
       </c>
       <c r="D66" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E66" s="127" t="n">
-        <v>-0.7648000000000001</v>
+        <v>-0.7472799999999999</v>
       </c>
       <c r="F66" s="119" t="n">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         </is>
       </c>
       <c r="C67" s="119" t="n">
-        <v>23830</v>
+        <v>23960</v>
       </c>
       <c r="D67" s="119" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E67" s="127" t="n">
-        <v>-0.2474736842105271</v>
+        <v>-0.2811999999999992</v>
       </c>
       <c r="F67" s="119" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C68" s="119" t="n">
-        <v>30022</v>
+        <v>33333</v>
       </c>
       <c r="D68" s="119" t="n">
-        <v>27708.3333333333</v>
+        <v>29166.6666666667</v>
       </c>
       <c r="E68" s="127" t="n">
-        <v>0.08350075187970063</v>
+        <v>0.1428457142857129</v>
       </c>
       <c r="F68" s="119" t="n">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         </is>
       </c>
       <c r="C69" s="119" t="n">
-        <v>29000</v>
+        <v>29718</v>
       </c>
       <c r="D69" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E69" s="127" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.18872</v>
       </c>
       <c r="F69" s="119" t="n">
         <v>0</v>
@@ -4240,10 +4240,10 @@
         <v>2336</v>
       </c>
       <c r="D70" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E70" s="127" t="n">
-        <v>-0.8032842105263158</v>
+        <v>-0.8131200000000001</v>
       </c>
       <c r="F70" s="115" t="n">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="C71" s="111" t="n">
-        <v>174548</v>
+        <v>182461</v>
       </c>
       <c r="D71" s="111" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="E71" s="112" t="n">
-        <v>-0.08132631578947369</v>
+        <v>-0.08769499999999997</v>
       </c>
       <c r="F71" s="111" t="n">
         <v>0</v>
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="C72" s="124" t="n">
-        <v>29656</v>
+        <v>29887</v>
       </c>
       <c r="D72" s="124" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E72" s="123" t="n">
-        <v>0.2486736842105264</v>
+        <v>0.1954800000000001</v>
       </c>
       <c r="F72" s="122" t="n">
         <v>0</v>
@@ -4309,13 +4309,13 @@
         </is>
       </c>
       <c r="C73" s="119" t="n">
-        <v>3313</v>
+        <v>3481</v>
       </c>
       <c r="D73" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E73" s="127" t="n">
-        <v>-0.5815157894736844</v>
+        <v>-0.5822799999999999</v>
       </c>
       <c r="F73" s="119" t="n">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         </is>
       </c>
       <c r="C74" s="119" t="n">
-        <v>17282</v>
+        <v>19124</v>
       </c>
       <c r="D74" s="119" t="n">
-        <v>36416.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E74" s="127" t="n">
-        <v>-0.5254370709382156</v>
+        <v>-0.5011130434782605</v>
       </c>
       <c r="F74" s="119" t="n">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C75" s="119" t="n">
-        <v>28532</v>
+        <v>29114</v>
       </c>
       <c r="D75" s="119" t="n">
-        <v>19791.6666666667</v>
+        <v>20833.3333333333</v>
       </c>
       <c r="E75" s="127" t="n">
-        <v>0.4416168421052606</v>
+        <v>0.3974720000000023</v>
       </c>
       <c r="F75" s="119" t="n">
         <v>0</v>
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="C76" s="119" t="n">
-        <v>34834</v>
+        <v>35541</v>
       </c>
       <c r="D76" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E76" s="127" t="n">
-        <v>0.4666947368421053</v>
+        <v>0.42164</v>
       </c>
       <c r="F76" s="119" t="n">
         <v>0</v>
@@ -4405,13 +4405,13 @@
         </is>
       </c>
       <c r="C77" s="115" t="n">
-        <v>5730</v>
+        <v>7553</v>
       </c>
       <c r="D77" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E77" s="127" t="n">
-        <v>-0.5174736842105263</v>
+        <v>-0.39576</v>
       </c>
       <c r="F77" s="115" t="n">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="C78" s="111" t="n">
-        <v>168203</v>
+        <v>174069</v>
       </c>
       <c r="D78" s="111" t="n">
-        <v>158333.333333333</v>
+        <v>166666.666666667</v>
       </c>
       <c r="E78" s="112" t="n">
-        <v>0.06233473684210744</v>
+        <v>0.04441399999999796</v>
       </c>
       <c r="F78" s="111" t="n">
         <v>0</v>
@@ -4453,16 +4453,16 @@
         </is>
       </c>
       <c r="C79" s="124" t="n">
-        <v>27840</v>
+        <v>29240</v>
       </c>
       <c r="D79" s="124" t="n">
-        <v>35625</v>
+        <v>37500</v>
       </c>
       <c r="E79" s="123" t="n">
-        <v>-0.2185263157894737</v>
+        <v>-0.2202666666666667</v>
       </c>
       <c r="F79" s="122" t="n">
-        <v>0</v>
+        <v>1400.85</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" s="304">
@@ -4477,16 +4477,16 @@
         </is>
       </c>
       <c r="C80" s="119" t="n">
-        <v>3396</v>
+        <v>3606</v>
       </c>
       <c r="D80" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E80" s="127" t="n">
-        <v>-0.5710315789473686</v>
+        <v>-0.5672799999999998</v>
       </c>
       <c r="F80" s="119" t="n">
-        <v>0</v>
+        <v>210.833333333333</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" s="304">
@@ -4501,16 +4501,16 @@
         </is>
       </c>
       <c r="C81" s="119" t="n">
-        <v>28704</v>
+        <v>30754</v>
       </c>
       <c r="D81" s="119" t="n">
-        <v>48291.6666666667</v>
+        <v>50833.3333333333</v>
       </c>
       <c r="E81" s="127" t="n">
-        <v>-0.4056117342536674</v>
+        <v>-0.3950032786885241</v>
       </c>
       <c r="F81" s="119" t="n">
-        <v>130.416666666667</v>
+        <v>2180.83333333333</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" s="304">
@@ -4597,16 +4597,16 @@
         </is>
       </c>
       <c r="C85" s="111" t="n">
-        <v>92699</v>
+        <v>97446</v>
       </c>
       <c r="D85" s="111" t="n">
-        <v>110833.333333333</v>
+        <v>116666.666666667</v>
       </c>
       <c r="E85" s="112" t="n">
-        <v>-0.1636180451127794</v>
+        <v>-0.1647485714285739</v>
       </c>
       <c r="F85" s="111" t="n">
-        <v>187</v>
+        <v>4934.68333333333</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -4693,16 +4693,16 @@
         </is>
       </c>
       <c r="C89" s="119" t="n">
-        <v>28433</v>
+        <v>29282</v>
       </c>
       <c r="D89" s="119" t="n">
-        <v>39583.3333333333</v>
+        <v>41666.6666666667</v>
       </c>
       <c r="E89" s="127" t="n">
-        <v>-0.2816926315789468</v>
+        <v>-0.2972320000000006</v>
       </c>
       <c r="F89" s="119" t="n">
-        <v>0</v>
+        <v>849.25</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" s="304">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="C90" s="119" t="n">
-        <v>22389</v>
+        <v>23508</v>
       </c>
       <c r="D90" s="119" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E90" s="127" t="n">
-        <v>-0.05730526315789475</v>
+        <v>-0.05967999999999996</v>
       </c>
       <c r="F90" s="119" t="n">
-        <v>0</v>
+        <v>1119.45833333333</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" s="304">
@@ -4741,16 +4741,16 @@
         </is>
       </c>
       <c r="C91" s="115" t="n">
-        <v>6253</v>
+        <v>6548</v>
       </c>
       <c r="D91" s="115" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E91" s="127" t="n">
-        <v>-0.4734315789473684</v>
+        <v>-0.47616</v>
       </c>
       <c r="F91" s="115" t="n">
-        <v>0</v>
+        <v>295.125</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" s="304">
@@ -4765,16 +4765,16 @@
         </is>
       </c>
       <c r="C92" s="111" t="n">
-        <v>76047</v>
+        <v>78746</v>
       </c>
       <c r="D92" s="111" t="n">
-        <v>102916.666666667</v>
+        <v>108333.333333333</v>
       </c>
       <c r="E92" s="112" t="n">
-        <v>-0.2610817813765206</v>
+        <v>-0.2731138461538439</v>
       </c>
       <c r="F92" s="111" t="n">
-        <v>0</v>
+        <v>2699.43333333333</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -4789,16 +4789,16 @@
         </is>
       </c>
       <c r="C93" s="124" t="n">
-        <v>28016</v>
+        <v>28911</v>
       </c>
       <c r="D93" s="124" t="n">
-        <v>39583.3333333333</v>
+        <v>41666.6666666667</v>
       </c>
       <c r="E93" s="123" t="n">
-        <v>-0.292227368421052</v>
+        <v>-0.3061360000000005</v>
       </c>
       <c r="F93" s="122" t="n">
-        <v>76.875</v>
+        <v>971.375</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" s="304">
@@ -4813,16 +4813,16 @@
         </is>
       </c>
       <c r="C94" s="119" t="n">
-        <v>3742</v>
+        <v>3776</v>
       </c>
       <c r="D94" s="119" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E94" s="127" t="n">
-        <v>-0.5273263157894739</v>
+        <v>-0.5468799999999998</v>
       </c>
       <c r="F94" s="119" t="n">
-        <v>0</v>
+        <v>34.1666666666667</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" s="304">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="C95" s="119" t="n">
-        <v>20412</v>
+        <v>20567</v>
       </c>
       <c r="D95" s="119" t="n">
-        <v>27708.3333333333</v>
+        <v>29166.6666666667</v>
       </c>
       <c r="E95" s="127" t="n">
-        <v>-0.2633263157894727</v>
+        <v>-0.2948457142857152</v>
       </c>
       <c r="F95" s="119" t="n">
-        <v>103.333333333333</v>
+        <v>258.333333333333</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" s="304">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="C96" s="119" t="n">
-        <v>6924</v>
+        <v>9356</v>
       </c>
       <c r="D96" s="119" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="119" t="n">
-        <v>0</v>
+        <v>2432.16666666667</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" s="304">
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="C97" s="119" t="n">
-        <v>1834</v>
+        <v>2780</v>
       </c>
       <c r="D97" s="119" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="119" t="n">
-        <v>0</v>
+        <v>946.416666666667</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" s="304">
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="C98" s="115" t="n">
-        <v>946</v>
+        <v>1906</v>
       </c>
       <c r="D98" s="115" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="115" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" s="304">
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="C99" s="111" t="n">
-        <v>89939</v>
+        <v>97049</v>
       </c>
       <c r="D99" s="111" t="n">
-        <v>114791.666666667</v>
+        <v>120833.333333333</v>
       </c>
       <c r="E99" s="112" t="n">
-        <v>-0.2165023593466447</v>
+        <v>-0.1968358620689633</v>
       </c>
       <c r="F99" s="111" t="n">
-        <v>180.208333333333</v>
+        <v>7290.1</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -5032,10 +5032,10 @@
         <v>42483</v>
       </c>
       <c r="D103" s="119" t="n">
-        <v>55416.6666666667</v>
+        <v>58333.3333333333</v>
       </c>
       <c r="E103" s="127" t="n">
-        <v>-0.233389473684211</v>
+        <v>-0.2717199999999996</v>
       </c>
       <c r="F103" s="119" t="n">
         <v>0</v>
@@ -5056,10 +5056,10 @@
         <v>20418</v>
       </c>
       <c r="D104" s="119" t="n">
-        <v>27708.3333333333</v>
+        <v>29166.6666666667</v>
       </c>
       <c r="E104" s="127" t="n">
-        <v>-0.2631097744360893</v>
+        <v>-0.2999542857142865</v>
       </c>
       <c r="F104" s="119" t="n">
         <v>0</v>
@@ -5080,10 +5080,10 @@
         <v>10648</v>
       </c>
       <c r="D105" s="115" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E105" s="127" t="n">
-        <v>-0.5516631578947369</v>
+        <v>-0.5740799999999999</v>
       </c>
       <c r="F105" s="115" t="n">
         <v>0</v>
@@ -5104,10 +5104,10 @@
         <v>115060</v>
       </c>
       <c r="D106" s="111" t="n">
-        <v>134583.333333333</v>
+        <v>141666.666666667</v>
       </c>
       <c r="E106" s="112" t="n">
-        <v>-0.145065015479874</v>
+        <v>-0.1878117647058843</v>
       </c>
       <c r="F106" s="111" t="n">
         <v>0</v>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C110" s="119" t="n">
-        <v>41632</v>
+        <v>42802</v>
       </c>
       <c r="D110" s="119" t="n">
-        <v>55416.6666666667</v>
+        <v>58333.3333333333</v>
       </c>
       <c r="E110" s="127" t="n">
-        <v>-0.2487458646616546</v>
+        <v>-0.2662514285714281</v>
       </c>
       <c r="F110" s="119" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="C111" s="119" t="n">
-        <v>31039</v>
+        <v>31719</v>
       </c>
       <c r="D111" s="119" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E111" s="127" t="n">
-        <v>-0.01982105263157996</v>
+        <v>-0.04842999999999908</v>
       </c>
       <c r="F111" s="119" t="n">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="C112" s="115" t="n">
-        <v>7003</v>
+        <v>7538</v>
       </c>
       <c r="D112" s="115" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E112" s="127" t="n">
-        <v>-0.5577052631578938</v>
+        <v>-0.5477200000000009</v>
       </c>
       <c r="F112" s="115" t="n">
         <v>0</v>
@@ -5269,13 +5269,13 @@
         </is>
       </c>
       <c r="C113" s="111" t="n">
-        <v>119275</v>
+        <v>124220</v>
       </c>
       <c r="D113" s="111" t="n">
-        <v>142500</v>
+        <v>150000</v>
       </c>
       <c r="E113" s="112" t="n">
-        <v>-0.1629824561403509</v>
+        <v>-0.1718666666666666</v>
       </c>
       <c r="F113" s="111" t="n">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         </is>
       </c>
       <c r="C114" s="178" t="n">
-        <v>41168</v>
+        <v>42627</v>
       </c>
       <c r="D114" s="178" t="n">
-        <v>43541.6666666667</v>
+        <v>45833.3333333333</v>
       </c>
       <c r="E114" s="179" t="n">
-        <v>-0.05451483253588596</v>
+        <v>-0.06995636363636293</v>
       </c>
       <c r="F114" s="180" t="n">
         <v>0</v>
@@ -5317,13 +5317,13 @@
         </is>
       </c>
       <c r="C115" s="186" t="n">
-        <v>2338</v>
+        <v>2761</v>
       </c>
       <c r="D115" s="186" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E115" s="187" t="n">
-        <v>-0.7046736842105265</v>
+        <v>-0.6686799999999999</v>
       </c>
       <c r="F115" s="188" t="n">
         <v>0</v>
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="C116" s="186" t="n">
-        <v>15032</v>
+        <v>15710</v>
       </c>
       <c r="D116" s="186" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E116" s="187" t="n">
-        <v>-0.5253052631578952</v>
+        <v>-0.5286999999999995</v>
       </c>
       <c r="F116" s="188" t="n">
         <v>0</v>
@@ -5437,13 +5437,13 @@
         </is>
       </c>
       <c r="C120" s="186" t="n">
-        <v>85921</v>
+        <v>90154</v>
       </c>
       <c r="D120" s="186" t="n">
-        <v>118750</v>
+        <v>125000</v>
       </c>
       <c r="E120" s="187" t="n">
-        <v>-0.2764547368421053</v>
+        <v>-0.278768</v>
       </c>
       <c r="F120" s="188" t="n">
         <v>0</v>
@@ -5461,13 +5461,13 @@
         </is>
       </c>
       <c r="C121" s="186" t="n">
-        <v>17600</v>
+        <v>20045</v>
       </c>
       <c r="D121" s="186" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E121" s="187" t="n">
-        <v>-0.4442105263157901</v>
+        <v>-0.3986499999999994</v>
       </c>
       <c r="F121" s="188" t="n">
         <v>0</v>
@@ -5485,13 +5485,13 @@
         </is>
       </c>
       <c r="C122" s="186" t="n">
-        <v>3020</v>
+        <v>3720</v>
       </c>
       <c r="D122" s="186" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="E122" s="187" t="n">
-        <v>-0.3642105263157894</v>
+        <v>-0.256</v>
       </c>
       <c r="F122" s="188" t="n">
         <v>0</v>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C123" s="186" t="n">
-        <v>9970</v>
+        <v>9986</v>
       </c>
       <c r="D123" s="186" t="n">
-        <v>30083.3333333333</v>
+        <v>31666.6666666667</v>
       </c>
       <c r="E123" s="187" t="n">
-        <v>-0.6685872576177281</v>
+        <v>-0.6846526315789476</v>
       </c>
       <c r="F123" s="188" t="n">
         <v>0</v>
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C124" s="186" t="n">
-        <v>27486</v>
+        <v>31090</v>
       </c>
       <c r="D124" s="186" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E124" s="187" t="n">
-        <v>-0.1320210526315799</v>
+        <v>-0.06729999999999903</v>
       </c>
       <c r="F124" s="188" t="n">
         <v>0</v>
@@ -5557,13 +5557,13 @@
         </is>
       </c>
       <c r="C125" s="186" t="n">
-        <v>21874</v>
+        <v>23914</v>
       </c>
       <c r="D125" s="186" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E125" s="187" t="n">
-        <v>-0.0789894736842105</v>
+        <v>-0.04344000000000003</v>
       </c>
       <c r="F125" s="188" t="n">
         <v>0</v>
@@ -5581,13 +5581,13 @@
         </is>
       </c>
       <c r="C126" s="186" t="n">
-        <v>5135</v>
+        <v>6066</v>
       </c>
       <c r="D126" s="186" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E126" s="187" t="n">
-        <v>-0.5675789473684211</v>
+        <v>-0.5147200000000001</v>
       </c>
       <c r="F126" s="188" t="n">
         <v>0</v>
@@ -5605,13 +5605,13 @@
         </is>
       </c>
       <c r="C127" s="130" t="n">
-        <v>120913</v>
+        <v>135577</v>
       </c>
       <c r="D127" s="130" t="n">
-        <v>158333.333333333</v>
+        <v>166666.666666667</v>
       </c>
       <c r="E127" s="110" t="n">
-        <v>-0.2363389473684194</v>
+        <v>-0.1865380000000016</v>
       </c>
       <c r="F127" s="130" t="n">
         <v>0</v>
@@ -5632,10 +5632,10 @@
         <v>18816</v>
       </c>
       <c r="D128" s="130" t="n">
-        <v>35625</v>
+        <v>37500</v>
       </c>
       <c r="E128" s="110" t="n">
-        <v>-0.4718315789473684</v>
+        <v>-0.49824</v>
       </c>
       <c r="F128" s="130" t="n">
         <v>0</v>
@@ -5656,10 +5656,10 @@
         <v>2926</v>
       </c>
       <c r="D129" s="130" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E129" s="110" t="n">
-        <v>-0.6304000000000001</v>
+        <v>-0.6488799999999999</v>
       </c>
       <c r="F129" s="130" t="n">
         <v>0</v>
@@ -5680,10 +5680,10 @@
         <v>14997</v>
       </c>
       <c r="D130" s="130" t="n">
-        <v>49083.3333333333</v>
+        <v>51666.6666666667</v>
       </c>
       <c r="E130" s="110" t="n">
-        <v>-0.6944584040747026</v>
+        <v>-0.709735483870968</v>
       </c>
       <c r="F130" s="130" t="n">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>28947</v>
       </c>
       <c r="D131" s="130" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E131" s="110" t="n">
-        <v>-0.08588421052631678</v>
+        <v>-0.1315899999999991</v>
       </c>
       <c r="F131" s="130" t="n">
         <v>0</v>
@@ -5728,10 +5728,10 @@
         <v>22200</v>
       </c>
       <c r="D132" s="130" t="n">
-        <v>19791.6666666667</v>
+        <v>20833.3333333333</v>
       </c>
       <c r="E132" s="110" t="n">
-        <v>0.1216842105263138</v>
+        <v>0.06560000000000166</v>
       </c>
       <c r="F132" s="130" t="n">
         <v>0</v>
@@ -5752,10 +5752,10 @@
         <v>3886</v>
       </c>
       <c r="D133" s="130" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E133" s="110" t="n">
-        <v>-0.6727578947368421</v>
+        <v>-0.68912</v>
       </c>
       <c r="F133" s="130" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
         <v>135834</v>
       </c>
       <c r="D134" s="130" t="n">
-        <v>197916.666666667</v>
+        <v>208333.333333333</v>
       </c>
       <c r="E134" s="110" t="n">
-        <v>-0.3136808421052644</v>
+        <v>-0.3479967999999989</v>
       </c>
       <c r="F134" s="130" t="n">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="C135" s="130" t="n">
-        <v>13058</v>
+        <v>14608</v>
       </c>
       <c r="D135" s="130" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E135" s="110" t="n">
-        <v>-0.4501894736842105</v>
+        <v>-0.41568</v>
       </c>
       <c r="F135" s="130" t="n">
         <v>0</v>
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="C136" s="130" t="n">
-        <v>2195</v>
+        <v>2318</v>
       </c>
       <c r="D136" s="130" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E136" s="110" t="n">
-        <v>-0.7227368421052633</v>
+        <v>-0.7218399999999999</v>
       </c>
       <c r="F136" s="130" t="n">
         <v>0</v>
@@ -5845,13 +5845,13 @@
         </is>
       </c>
       <c r="C137" s="130" t="n">
-        <v>9839</v>
+        <v>12309</v>
       </c>
       <c r="D137" s="130" t="n">
-        <v>25333.3333333333</v>
+        <v>26666.6666666667</v>
       </c>
       <c r="E137" s="110" t="n">
-        <v>-0.611618421052631</v>
+        <v>-0.5384125000000006</v>
       </c>
       <c r="F137" s="130" t="n">
         <v>0</v>
@@ -5869,13 +5869,13 @@
         </is>
       </c>
       <c r="C138" s="130" t="n">
-        <v>17417</v>
+        <v>18247</v>
       </c>
       <c r="D138" s="130" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E138" s="110" t="n">
-        <v>-0.2666526315789474</v>
+        <v>-0.27012</v>
       </c>
       <c r="F138" s="130" t="n">
         <v>0</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="C139" s="130" t="n">
-        <v>14710</v>
+        <v>15479</v>
       </c>
       <c r="D139" s="130" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E139" s="110" t="n">
-        <v>-0.07094736842105065</v>
+        <v>-0.07126000000000188</v>
       </c>
       <c r="F139" s="130" t="n">
         <v>0</v>
@@ -5920,10 +5920,10 @@
         <v>3529</v>
       </c>
       <c r="D140" s="130" t="n">
-        <v>11875</v>
+        <v>12500</v>
       </c>
       <c r="E140" s="110" t="n">
-        <v>-0.702821052631579</v>
+        <v>-0.71768</v>
       </c>
       <c r="F140" s="130" t="n">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         </is>
       </c>
       <c r="C141" s="130" t="n">
-        <v>93803</v>
+        <v>101059</v>
       </c>
       <c r="D141" s="130" t="n">
-        <v>118750</v>
+        <v>125000</v>
       </c>
       <c r="E141" s="110" t="n">
-        <v>-0.21008</v>
+        <v>-0.191528</v>
       </c>
       <c r="F141" s="130" t="n">
         <v>0</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="C142" s="130" t="n">
-        <v>20131</v>
+        <v>20726</v>
       </c>
       <c r="D142" s="130" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E142" s="110" t="n">
-        <v>-0.3642842105263164</v>
+        <v>-0.3782199999999993</v>
       </c>
       <c r="F142" s="130" t="n">
         <v>0</v>
@@ -5989,13 +5989,13 @@
         </is>
       </c>
       <c r="C143" s="130" t="n">
-        <v>2054</v>
+        <v>2232</v>
       </c>
       <c r="D143" s="130" t="n">
-        <v>7916.66666666667</v>
+        <v>8333.33333333333</v>
       </c>
       <c r="E143" s="110" t="n">
-        <v>-0.7405473684210527</v>
+        <v>-0.7321599999999999</v>
       </c>
       <c r="F143" s="130" t="n">
         <v>0</v>
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="C144" s="130" t="n">
-        <v>17551</v>
+        <v>19457</v>
       </c>
       <c r="D144" s="130" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E144" s="110" t="n">
-        <v>-0.4457578947368427</v>
+        <v>-0.4162899999999994</v>
       </c>
       <c r="F144" s="130" t="n">
         <v>0</v>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C145" s="130" t="n">
-        <v>39292</v>
+        <v>40740</v>
       </c>
       <c r="D145" s="130" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E145" s="110" t="n">
-        <v>-0.1728</v>
+        <v>-0.1852</v>
       </c>
       <c r="F145" s="130" t="n">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         </is>
       </c>
       <c r="C146" s="130" t="n">
-        <v>20689</v>
+        <v>20780</v>
       </c>
       <c r="D146" s="130" t="n">
-        <v>31666.6666666667</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="E146" s="110" t="n">
-        <v>-0.3466631578947376</v>
+        <v>-0.3765999999999994</v>
       </c>
       <c r="F146" s="130" t="n">
         <v>0</v>
@@ -6085,13 +6085,13 @@
         </is>
       </c>
       <c r="C147" s="130" t="n">
-        <v>15780</v>
+        <v>15930</v>
       </c>
       <c r="D147" s="130" t="n">
-        <v>15833.3333333333</v>
+        <v>16666.6666666667</v>
       </c>
       <c r="E147" s="110" t="n">
-        <v>-0.003368421052629467</v>
+        <v>-0.0442000000000019</v>
       </c>
       <c r="F147" s="130" t="n">
         <v>0</v>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C148" s="130" t="n">
-        <v>162090</v>
+        <v>168307</v>
       </c>
       <c r="D148" s="130" t="n">
-        <v>182083.333333333</v>
+        <v>191666.666666667</v>
       </c>
       <c r="E148" s="110" t="n">
-        <v>-0.1098032036613256</v>
+        <v>-0.121876521739132</v>
       </c>
       <c r="F148" s="130" t="n">
         <v>0</v>
@@ -6133,16 +6133,16 @@
         </is>
       </c>
       <c r="C149" s="130" t="n">
-        <v>567742</v>
+        <v>574419</v>
       </c>
       <c r="D149" s="130" t="n">
-        <v>554166.666666667</v>
+        <v>583333.333333333</v>
       </c>
       <c r="E149" s="110" t="n">
-        <v>0.02449684210526248</v>
+        <v>-0.01528171428571379</v>
       </c>
       <c r="F149" s="130" t="n">
-        <v>158829.353125</v>
+        <v>136374.271041667</v>
       </c>
     </row>
     <row r="150">
@@ -6157,16 +6157,16 @@
         </is>
       </c>
       <c r="C150" s="130" t="n">
-        <v>45333</v>
+        <v>46503</v>
       </c>
       <c r="D150" s="130" t="n">
-        <v>31666.6666666666</v>
+        <v>33333.3333333334</v>
       </c>
       <c r="E150" s="110" t="n">
-        <v>0.4315684210526347</v>
+        <v>0.3950899999999971</v>
       </c>
       <c r="F150" s="130" t="n">
-        <v>5096</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="151">
@@ -6181,16 +6181,16 @@
         </is>
       </c>
       <c r="C151" s="130" t="n">
-        <v>192364</v>
+        <v>194969</v>
       </c>
       <c r="D151" s="130" t="n">
-        <v>63333.3333333333</v>
+        <v>66666.6666666667</v>
       </c>
       <c r="E151" s="110" t="n">
-        <v>2.037326315789475</v>
+        <v>1.924534999999998</v>
       </c>
       <c r="F151" s="130" t="n">
-        <v>45950.8525</v>
+        <v>48126.2282891666</v>
       </c>
     </row>
     <row r="152">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="C152" s="130" t="n">
-        <v>1204480</v>
+        <v>1222909</v>
       </c>
       <c r="D152" s="130" t="n">
-        <v>570000</v>
+        <v>600000</v>
       </c>
       <c r="E152" s="110" t="n">
-        <v>1.113122807017544</v>
+        <v>1.038181666666667</v>
       </c>
       <c r="F152" s="130" t="n">
-        <v>142376.239166667</v>
+        <v>151445.505833333</v>
       </c>
     </row>
     <row r="153">
@@ -6229,16 +6229,16 @@
         </is>
       </c>
       <c r="C153" s="130" t="n">
-        <v>141778</v>
+        <v>154880</v>
       </c>
       <c r="D153" s="130" t="n">
-        <v>63333.3333333333</v>
+        <v>66666.6666666667</v>
       </c>
       <c r="E153" s="110" t="n">
-        <v>1.238600000000001</v>
+        <v>1.323199999999999</v>
       </c>
       <c r="F153" s="130" t="n">
-        <v>28477</v>
+        <v>41579.72</v>
       </c>
     </row>
     <row r="154">
@@ -6256,10 +6256,10 @@
         <v>44750</v>
       </c>
       <c r="D154" s="130" t="n">
-        <v>91833.3333333333</v>
+        <v>96666.6666666667</v>
       </c>
       <c r="E154" s="110" t="n">
-        <v>-0.512704174228675</v>
+        <v>-0.5370689655172416</v>
       </c>
       <c r="F154" s="130" t="n">
         <v>11128.4833333333</v>
@@ -6277,16 +6277,16 @@
         </is>
       </c>
       <c r="C155" s="130" t="n">
-        <v>3895623</v>
+        <v>3960065</v>
       </c>
       <c r="D155" s="130" t="n">
-        <v>3166666.66666667</v>
+        <v>3333333.33333333</v>
       </c>
       <c r="E155" s="110" t="n">
-        <v>0.2301967368421041</v>
+        <v>0.1880195000000011</v>
       </c>
       <c r="F155" s="130" t="n">
-        <v>685331.121290834</v>
+        <v>674441.798705001</v>
       </c>
     </row>
     <row r="156">
@@ -6301,16 +6301,16 @@
         </is>
       </c>
       <c r="C156" s="130" t="n">
-        <v>153669</v>
+        <v>157823</v>
       </c>
       <c r="D156" s="130" t="n">
-        <v>187625</v>
+        <v>197500</v>
       </c>
       <c r="E156" s="110" t="n">
-        <v>-0.1809780146568954</v>
+        <v>-0.2008962025316455</v>
       </c>
       <c r="F156" s="130" t="n">
-        <v>0</v>
+        <v>1400.85</v>
       </c>
     </row>
     <row r="157">
@@ -6325,16 +6325,16 @@
         </is>
       </c>
       <c r="C157" s="130" t="n">
-        <v>14874</v>
+        <v>15875</v>
       </c>
       <c r="D157" s="130" t="n">
-        <v>43541.6666666667</v>
+        <v>45833.3333333333</v>
       </c>
       <c r="E157" s="110" t="n">
-        <v>-0.6583961722488041</v>
+        <v>-0.6536363636363633</v>
       </c>
       <c r="F157" s="130" t="n">
-        <v>0</v>
+        <v>210.833333333333</v>
       </c>
     </row>
     <row r="158">
@@ -6349,16 +6349,16 @@
         </is>
       </c>
       <c r="C158" s="130" t="n">
-        <v>128895</v>
+        <v>135864</v>
       </c>
       <c r="D158" s="130" t="n">
-        <v>206625</v>
+        <v>217500</v>
       </c>
       <c r="E158" s="110" t="n">
-        <v>-0.3761887477313974</v>
+        <v>-0.3753379310344828</v>
       </c>
       <c r="F158" s="130" t="n">
-        <v>337.083333333334</v>
+        <v>2387.5</v>
       </c>
     </row>
     <row r="159">
@@ -6373,16 +6373,16 @@
         </is>
       </c>
       <c r="C159" s="130" t="n">
-        <v>146498</v>
+        <v>154240</v>
       </c>
       <c r="D159" s="130" t="n">
-        <v>166250</v>
+        <v>175000</v>
       </c>
       <c r="E159" s="110" t="n">
-        <v>-0.118809022556391</v>
+        <v>-0.1186285714285714</v>
       </c>
       <c r="F159" s="130" t="n">
-        <v>0</v>
+        <v>849.25</v>
       </c>
     </row>
     <row r="160">
@@ -6397,16 +6397,16 @@
         </is>
       </c>
       <c r="C160" s="130" t="n">
-        <v>134841</v>
+        <v>138971</v>
       </c>
       <c r="D160" s="130" t="n">
-        <v>134583.333333333</v>
+        <v>141666.666666667</v>
       </c>
       <c r="E160" s="110" t="n">
-        <v>0.001914551083593841</v>
+        <v>-0.01902823529412001</v>
       </c>
       <c r="F160" s="130" t="n">
-        <v>0</v>
+        <v>1119.45833333333</v>
       </c>
     </row>
     <row r="161">
@@ -6421,16 +6421,16 @@
         </is>
       </c>
       <c r="C161" s="130" t="n">
-        <v>28575</v>
+        <v>31226</v>
       </c>
       <c r="D161" s="130" t="n">
-        <v>71250</v>
+        <v>75000</v>
       </c>
       <c r="E161" s="110" t="n">
-        <v>-0.5989473684210527</v>
+        <v>-0.5836533333333334</v>
       </c>
       <c r="F161" s="130" t="n">
-        <v>0</v>
+        <v>295.125</v>
       </c>
     </row>
     <row r="162">
@@ -6445,16 +6445,16 @@
         </is>
       </c>
       <c r="C162" s="130" t="n">
-        <v>862941</v>
+        <v>897424</v>
       </c>
       <c r="D162" s="130" t="n">
-        <v>1092500</v>
+        <v>1150000</v>
       </c>
       <c r="E162" s="110" t="n">
-        <v>-0.2101226544622425</v>
+        <v>-0.2196313043478261</v>
       </c>
       <c r="F162" s="130" t="n">
-        <v>479.166666666667</v>
+        <v>7926.28333333333</v>
       </c>
     </row>
     <row r="163">
@@ -6469,16 +6469,16 @@
         </is>
       </c>
       <c r="C163" s="130" t="n">
-        <v>141891</v>
+        <v>148833</v>
       </c>
       <c r="D163" s="130" t="n">
-        <v>205833.333333333</v>
+        <v>216666.666666667</v>
       </c>
       <c r="E163" s="110" t="n">
-        <v>-0.3106510121457479</v>
+        <v>-0.3130784615384626</v>
       </c>
       <c r="F163" s="130" t="n">
-        <v>76.875</v>
+        <v>971.375</v>
       </c>
     </row>
     <row r="164">
@@ -6493,16 +6493,16 @@
         </is>
       </c>
       <c r="C164" s="130" t="n">
-        <v>17267</v>
+        <v>18724</v>
       </c>
       <c r="D164" s="130" t="n">
-        <v>44333.3333333334</v>
+        <v>46666.6666666667</v>
       </c>
       <c r="E164" s="110" t="n">
-        <v>-0.6105187969924818</v>
+        <v>-0.5987714285714288</v>
       </c>
       <c r="F164" s="130" t="n">
-        <v>0</v>
+        <v>34.1666666666667</v>
       </c>
     </row>
     <row r="165">
@@ -6517,16 +6517,16 @@
         </is>
       </c>
       <c r="C165" s="130" t="n">
-        <v>92356</v>
+        <v>97582</v>
       </c>
       <c r="D165" s="130" t="n">
-        <v>195541.666666667</v>
+        <v>205833.333333333</v>
       </c>
       <c r="E165" s="110" t="n">
-        <v>-0.5276914553590462</v>
+        <v>-0.5259174089068819</v>
       </c>
       <c r="F165" s="130" t="n">
-        <v>103.333333333333</v>
+        <v>258.333333333333</v>
       </c>
     </row>
     <row r="166">
@@ -6541,16 +6541,16 @@
         </is>
       </c>
       <c r="C166" s="130" t="n">
-        <v>204193</v>
+        <v>213677</v>
       </c>
       <c r="D166" s="130" t="n">
-        <v>245416.666666667</v>
+        <v>258333.333333333</v>
       </c>
       <c r="E166" s="110" t="n">
-        <v>-0.1679741935483883</v>
+        <v>-0.1728632258064505</v>
       </c>
       <c r="F166" s="130" t="n">
-        <v>0</v>
+        <v>2432.16666666667</v>
       </c>
     </row>
     <row r="167">
@@ -6565,16 +6565,16 @@
         </is>
       </c>
       <c r="C167" s="130" t="n">
-        <v>132767</v>
+        <v>137292</v>
       </c>
       <c r="D167" s="130" t="n">
-        <v>150416.666666667</v>
+        <v>158333.333333333</v>
       </c>
       <c r="E167" s="110" t="n">
-        <v>-0.1173385041551267</v>
+        <v>-0.1328926315789455</v>
       </c>
       <c r="F167" s="130" t="n">
-        <v>0</v>
+        <v>946.416666666667</v>
       </c>
     </row>
     <row r="168">
@@ -6589,16 +6589,16 @@
         </is>
       </c>
       <c r="C168" s="130" t="n">
-        <v>46929</v>
+        <v>49505</v>
       </c>
       <c r="D168" s="130" t="n">
-        <v>91041.6666666666</v>
+        <v>95833.3333333334</v>
       </c>
       <c r="E168" s="110" t="n">
-        <v>-0.4845327231121278</v>
+        <v>-0.4834260869565221</v>
       </c>
       <c r="F168" s="130" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="169">
@@ -6613,16 +6613,16 @@
         </is>
       </c>
       <c r="C169" s="130" t="n">
-        <v>922839</v>
+        <v>967263</v>
       </c>
       <c r="D169" s="130" t="n">
-        <v>1167708.33333333</v>
+        <v>1229166.66666667</v>
       </c>
       <c r="E169" s="110" t="n">
-        <v>-0.2097007671721655</v>
+        <v>-0.2130741694915276</v>
       </c>
       <c r="F169" s="130" t="n">
-        <v>180.208333333333</v>
+        <v>7290.1</v>
       </c>
     </row>
     <row r="170">
@@ -6637,16 +6637,16 @@
         </is>
       </c>
       <c r="C170" s="130" t="n">
-        <v>863304</v>
+        <v>881077</v>
       </c>
       <c r="D170" s="130" t="n">
-        <v>947625</v>
+        <v>997500</v>
       </c>
       <c r="E170" s="110" t="n">
-        <v>-0.08898140087059758</v>
+        <v>-0.1167147869674185</v>
       </c>
       <c r="F170" s="130" t="n">
-        <v>158906.228125</v>
+        <v>138746.496041667</v>
       </c>
     </row>
     <row r="171">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C171" s="130" t="n">
-        <v>77474</v>
+        <v>81104</v>
       </c>
       <c r="D171" s="130" t="n">
-        <v>119541.666666667</v>
+        <v>125833.333333333</v>
       </c>
       <c r="E171" s="110" t="n">
-        <v>-0.3519079818752197</v>
+        <v>-0.3554649006622499</v>
       </c>
       <c r="F171" s="130" t="n">
-        <v>5096</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="172">
@@ -6685,16 +6685,16 @@
         </is>
       </c>
       <c r="C172" s="130" t="n">
-        <v>413617</v>
+        <v>428417</v>
       </c>
       <c r="D172" s="130" t="n">
-        <v>465500</v>
+        <v>490000</v>
       </c>
       <c r="E172" s="110" t="n">
-        <v>-0.1114564983888292</v>
+        <v>-0.1256795918367347</v>
       </c>
       <c r="F172" s="130" t="n">
-        <v>46391.2691666666</v>
+        <v>50772.0616224999</v>
       </c>
     </row>
     <row r="173">
@@ -6709,16 +6709,16 @@
         </is>
       </c>
       <c r="C173" s="130" t="n">
-        <v>1555173</v>
+        <v>1590827</v>
       </c>
       <c r="D173" s="130" t="n">
-        <v>981666.666666667</v>
+        <v>1033333.33333333</v>
       </c>
       <c r="E173" s="110" t="n">
-        <v>0.5842169779286921</v>
+        <v>0.539510000000005</v>
       </c>
       <c r="F173" s="130" t="n">
-        <v>142376.239166667</v>
+        <v>154726.9225</v>
       </c>
     </row>
     <row r="174">
@@ -6733,16 +6733,16 @@
         </is>
       </c>
       <c r="C174" s="130" t="n">
-        <v>409387</v>
+        <v>431145</v>
       </c>
       <c r="D174" s="130" t="n">
-        <v>348333.333333333</v>
+        <v>366666.666666667</v>
       </c>
       <c r="E174" s="110" t="n">
-        <v>0.1752736842105274</v>
+        <v>0.175849999999999</v>
       </c>
       <c r="F174" s="130" t="n">
-        <v>28477</v>
+        <v>43645.595</v>
       </c>
     </row>
     <row r="175">
@@ -6757,16 +6757,16 @@
         </is>
       </c>
       <c r="C175" s="130" t="n">
-        <v>120255</v>
+        <v>125482</v>
       </c>
       <c r="D175" s="130" t="n">
-        <v>254125</v>
+        <v>267500</v>
       </c>
       <c r="E175" s="110" t="n">
-        <v>-0.5267879980324643</v>
+        <v>-0.5309084112149532</v>
       </c>
       <c r="F175" s="130" t="n">
-        <v>11128.4833333333</v>
+        <v>12383.6083333333</v>
       </c>
     </row>
     <row r="176">
@@ -6781,16 +6781,16 @@
         </is>
       </c>
       <c r="C176" s="130" t="n">
-        <v>5681403</v>
+        <v>5824754</v>
       </c>
       <c r="D176" s="130" t="n">
-        <v>5426875</v>
+        <v>5712500</v>
       </c>
       <c r="E176" s="110" t="n">
-        <v>0.0469013935275826</v>
+        <v>0.01965059080962805</v>
       </c>
       <c r="F176" s="130" t="n">
-        <v>685990.496290834</v>
+        <v>689658.182038334</v>
       </c>
     </row>
     <row r="177">
@@ -6805,13 +6805,13 @@
         </is>
       </c>
       <c r="C177" s="130" t="n">
-        <v>2071335</v>
+        <v>2167169</v>
       </c>
       <c r="D177" s="130" t="n">
-        <v>2375000</v>
+        <v>2500000</v>
       </c>
       <c r="E177" s="110" t="n">
-        <v>-0.1278589473684211</v>
+        <v>-0.1331324</v>
       </c>
       <c r="F177" s="130" t="n">
         <v>0</v>
@@ -6829,13 +6829,13 @@
         </is>
       </c>
       <c r="C178" s="130" t="n">
-        <v>3060644</v>
+        <v>3110435</v>
       </c>
       <c r="D178" s="130" t="n">
-        <v>2216666.66666667</v>
+        <v>2333333.33333333</v>
       </c>
       <c r="E178" s="110" t="n">
-        <v>0.3807416541353363</v>
+        <v>0.3330435714285731</v>
       </c>
       <c r="F178" s="130" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="C179" s="130" t="n">
-        <v>518114</v>
+        <v>532054</v>
       </c>
       <c r="D179" s="130" t="n">
         <v>0</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C180" s="130" t="n">
-        <v>5624</v>
+        <v>5632</v>
       </c>
       <c r="D180" s="130" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="C182" s="130" t="n">
-        <v>372884</v>
+        <v>398357</v>
       </c>
       <c r="D182" s="130" t="n">
         <v>0</v>

--- a/finale.xlsx
+++ b/finale.xlsx
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="C2" s="124" t="n">
-        <v>13282</v>
+        <v>13629</v>
       </c>
       <c r="D2" s="124" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E2" s="123" t="n">
-        <v>-0.5170181818181818</v>
+        <v>-0.5259478260869566</v>
       </c>
       <c r="F2" s="122" t="n">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>760</v>
       </c>
       <c r="D3" s="119" t="n">
-        <v>4583.33333333333</v>
+        <v>4791.66666666667</v>
       </c>
       <c r="E3" s="127" t="n">
-        <v>-0.8341818181818181</v>
+        <v>-0.8413913043478262</v>
       </c>
       <c r="F3" s="119" t="n">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="C4" s="119" t="n">
-        <v>23701</v>
+        <v>23723</v>
       </c>
       <c r="D4" s="119" t="n">
-        <v>23833.3333333333</v>
+        <v>24916.6666666667</v>
       </c>
       <c r="E4" s="127" t="n">
-        <v>-0.005552447552446105</v>
+        <v>-0.04790635451505143</v>
       </c>
       <c r="F4" s="119" t="n">
         <v>206.666666666667</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="C8" s="111" t="n">
-        <v>49863</v>
+        <v>50714</v>
       </c>
       <c r="D8" s="111" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>-0.5467</v>
+        <v>-0.5590086956521739</v>
       </c>
       <c r="F8" s="111" t="n">
         <v>292.166666666667</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C12" s="119" t="n">
-        <v>21480</v>
+        <v>21669</v>
       </c>
       <c r="D12" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E12" s="127" t="n">
-        <v>-0.2189090909090909</v>
+        <v>-0.246295652173913</v>
       </c>
       <c r="F12" s="119" t="n">
         <v>0</v>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C13" s="119" t="n">
-        <v>21332</v>
+        <v>21592</v>
       </c>
       <c r="D13" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E13" s="127" t="n">
-        <v>-0.2242909090909091</v>
+        <v>-0.2489739130434783</v>
       </c>
       <c r="F13" s="119" t="n">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         <v>7125</v>
       </c>
       <c r="D14" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E14" s="127" t="n">
-        <v>-0.4818181818181818</v>
+        <v>-0.5043478260869565</v>
       </c>
       <c r="F14" s="115" t="n">
         <v>0</v>
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C15" s="111" t="n">
-        <v>71588</v>
+        <v>72366</v>
       </c>
       <c r="D15" s="111" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="E15" s="112" t="n">
-        <v>-0.3492</v>
+        <v>-0.3707304347826087</v>
       </c>
       <c r="F15" s="111" t="n">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         </is>
       </c>
       <c r="C16" s="124" t="n">
-        <v>25223</v>
+        <v>26422</v>
       </c>
       <c r="D16" s="124" t="n">
-        <v>52250</v>
+        <v>54625</v>
       </c>
       <c r="E16" s="123" t="n">
-        <v>-0.5172631578947369</v>
+        <v>-0.5163020594965675</v>
       </c>
       <c r="F16" s="122" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="C17" s="119" t="n">
-        <v>3781</v>
+        <v>3862</v>
       </c>
       <c r="D17" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E17" s="127" t="n">
-        <v>-0.5875272727272729</v>
+        <v>-0.5970086956521738</v>
       </c>
       <c r="F17" s="119" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="C18" s="119" t="n">
-        <v>27782</v>
+        <v>28048</v>
       </c>
       <c r="D18" s="119" t="n">
-        <v>51333.3333333333</v>
+        <v>53666.6666666667</v>
       </c>
       <c r="E18" s="127" t="n">
-        <v>-0.4587922077922074</v>
+        <v>-0.4773664596273295</v>
       </c>
       <c r="F18" s="119" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="C22" s="111" t="n">
-        <v>86528</v>
+        <v>88439</v>
       </c>
       <c r="D22" s="111" t="n">
-        <v>146666.666666667</v>
+        <v>153333.333333333</v>
       </c>
       <c r="E22" s="112" t="n">
-        <v>-0.410036363636365</v>
+        <v>-0.423223913043477</v>
       </c>
       <c r="F22" s="111" t="n">
         <v>0</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C26" s="119" t="n">
-        <v>26264</v>
+        <v>27503</v>
       </c>
       <c r="D26" s="119" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E26" s="127" t="n">
-        <v>-0.2837090909090916</v>
+        <v>-0.2825304347826081</v>
       </c>
       <c r="F26" s="119" t="n">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="C27" s="119" t="n">
-        <v>14879</v>
+        <v>15536</v>
       </c>
       <c r="D27" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E27" s="127" t="n">
-        <v>-0.4589454545454545</v>
+        <v>-0.4596173913043479</v>
       </c>
       <c r="F27" s="119" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>2441</v>
       </c>
       <c r="D28" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E28" s="127" t="n">
-        <v>-0.8224727272727272</v>
+        <v>-0.8301913043478261</v>
       </c>
       <c r="F28" s="115" t="n">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         </is>
       </c>
       <c r="C29" s="111" t="n">
-        <v>61500</v>
+        <v>64394</v>
       </c>
       <c r="D29" s="111" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="E29" s="112" t="n">
-        <v>-0.4409090909090909</v>
+        <v>-0.4400521739130435</v>
       </c>
       <c r="F29" s="111" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="C30" s="124" t="n">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="D30" s="124" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E30" s="123" t="n">
-        <v>-1</v>
+        <v>0.04372173913043476</v>
       </c>
       <c r="F30" s="122" t="n">
         <v>0</v>
@@ -3301,13 +3301,13 @@
         </is>
       </c>
       <c r="C31" s="119" t="n">
-        <v>0</v>
+        <v>2933</v>
       </c>
       <c r="D31" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E31" s="127" t="n">
-        <v>-1</v>
+        <v>-0.6939478260869565</v>
       </c>
       <c r="F31" s="119" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         </is>
       </c>
       <c r="C32" s="119" t="n">
-        <v>0</v>
+        <v>8383</v>
       </c>
       <c r="D32" s="119" t="n">
-        <v>29333.3333333333</v>
+        <v>30666.6666666667</v>
       </c>
       <c r="E32" s="127" t="n">
-        <v>-1</v>
+        <v>-0.7266413043478264</v>
       </c>
       <c r="F32" s="119" t="n">
         <v>0</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C33" s="119" t="n">
-        <v>0</v>
+        <v>19587</v>
       </c>
       <c r="D33" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E33" s="127" t="n">
-        <v>-1</v>
+        <v>-0.3187130434782609</v>
       </c>
       <c r="F33" s="119" t="n">
         <v>0</v>
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="C34" s="119" t="n">
-        <v>0</v>
+        <v>21156</v>
       </c>
       <c r="D34" s="119" t="n">
-        <v>18333.3333333333</v>
+        <v>19166.6666666667</v>
       </c>
       <c r="E34" s="127" t="n">
-        <v>-1</v>
+        <v>0.1037913043478242</v>
       </c>
       <c r="F34" s="119" t="n">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         </is>
       </c>
       <c r="C35" s="115" t="n">
-        <v>0</v>
+        <v>6167</v>
       </c>
       <c r="D35" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E35" s="127" t="n">
-        <v>-1</v>
+        <v>-0.5709913043478261</v>
       </c>
       <c r="F35" s="115" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="C36" s="111" t="n">
-        <v>0</v>
+        <v>124421</v>
       </c>
       <c r="D36" s="111" t="n">
-        <v>137500</v>
+        <v>143750</v>
       </c>
       <c r="E36" s="112" t="n">
-        <v>-1</v>
+        <v>-0.1344626086956522</v>
       </c>
       <c r="F36" s="111" t="n">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         </is>
       </c>
       <c r="C37" s="124" t="n">
-        <v>0</v>
+        <v>36549</v>
       </c>
       <c r="D37" s="124" t="n">
-        <v>41250</v>
+        <v>43125</v>
       </c>
       <c r="E37" s="123" t="n">
-        <v>-1</v>
+        <v>-0.1524869565217392</v>
       </c>
       <c r="F37" s="122" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         </is>
       </c>
       <c r="C38" s="119" t="n">
-        <v>0</v>
+        <v>2513</v>
       </c>
       <c r="D38" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E38" s="127" t="n">
-        <v>-1</v>
+        <v>-0.7377739130434782</v>
       </c>
       <c r="F38" s="119" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="C39" s="119" t="n">
-        <v>0</v>
+        <v>26963</v>
       </c>
       <c r="D39" s="119" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E39" s="127" t="n">
-        <v>-1</v>
+        <v>-0.2966173913043472</v>
       </c>
       <c r="F39" s="119" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C40" s="119" t="n">
-        <v>0</v>
+        <v>38235</v>
       </c>
       <c r="D40" s="119" t="n">
-        <v>32083.3333333333</v>
+        <v>33541.6666666667</v>
       </c>
       <c r="E40" s="127" t="n">
-        <v>-1</v>
+        <v>0.1399254658385081</v>
       </c>
       <c r="F40" s="119" t="n">
         <v>0</v>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C41" s="119" t="n">
-        <v>0</v>
+        <v>32484</v>
       </c>
       <c r="D41" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E41" s="127" t="n">
-        <v>-1</v>
+        <v>0.1298782608695652</v>
       </c>
       <c r="F41" s="119" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         </is>
       </c>
       <c r="C42" s="115" t="n">
-        <v>0</v>
+        <v>2647</v>
       </c>
       <c r="D42" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E42" s="127" t="n">
-        <v>-1</v>
+        <v>-0.8158608695652174</v>
       </c>
       <c r="F42" s="115" t="n">
         <v>0</v>
@@ -3589,13 +3589,13 @@
         </is>
       </c>
       <c r="C43" s="111" t="n">
-        <v>0</v>
+        <v>209825</v>
       </c>
       <c r="D43" s="111" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="E43" s="112" t="n">
-        <v>-1</v>
+        <v>-0.08771739130434786</v>
       </c>
       <c r="F43" s="111" t="n">
         <v>0</v>
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="C44" s="124" t="n">
-        <v>0</v>
+        <v>33344</v>
       </c>
       <c r="D44" s="124" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E44" s="123" t="n">
-        <v>-1</v>
+        <v>0.1597913043478261</v>
       </c>
       <c r="F44" s="122" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="C45" s="119" t="n">
-        <v>0</v>
+        <v>3616</v>
       </c>
       <c r="D45" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E45" s="127" t="n">
-        <v>-1</v>
+        <v>-0.6226782608695651</v>
       </c>
       <c r="F45" s="119" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         </is>
       </c>
       <c r="C46" s="119" t="n">
-        <v>0</v>
+        <v>19547</v>
       </c>
       <c r="D46" s="119" t="n">
-        <v>42166.6666666667</v>
+        <v>44083.3333333333</v>
       </c>
       <c r="E46" s="127" t="n">
-        <v>-1</v>
+        <v>-0.5565897920604912</v>
       </c>
       <c r="F46" s="119" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C47" s="119" t="n">
-        <v>0</v>
+        <v>32985</v>
       </c>
       <c r="D47" s="119" t="n">
-        <v>22916.6666666667</v>
+        <v>23958.3333333333</v>
       </c>
       <c r="E47" s="127" t="n">
-        <v>-1</v>
+        <v>0.3767652173913063</v>
       </c>
       <c r="F47" s="119" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="C48" s="119" t="n">
-        <v>0</v>
+        <v>38531</v>
       </c>
       <c r="D48" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E48" s="127" t="n">
-        <v>-1</v>
+        <v>0.3402086956521739</v>
       </c>
       <c r="F48" s="119" t="n">
         <v>0</v>
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="C49" s="115" t="n">
-        <v>0</v>
+        <v>8131</v>
       </c>
       <c r="D49" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E49" s="127" t="n">
-        <v>-1</v>
+        <v>-0.4343652173913043</v>
       </c>
       <c r="F49" s="115" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         </is>
       </c>
       <c r="C50" s="111" t="n">
-        <v>0</v>
+        <v>190302</v>
       </c>
       <c r="D50" s="111" t="n">
-        <v>183333.333333333</v>
+        <v>191666.666666667</v>
       </c>
       <c r="E50" s="112" t="n">
-        <v>-1</v>
+        <v>-0.007120000000001792</v>
       </c>
       <c r="F50" s="111" t="n">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C51" s="124" t="n">
-        <v>31910</v>
+        <v>32258</v>
       </c>
       <c r="D51" s="124" t="n">
-        <v>41250</v>
+        <v>43125</v>
       </c>
       <c r="E51" s="123" t="n">
-        <v>-0.2264242424242424</v>
+        <v>-0.2519884057971015</v>
       </c>
       <c r="F51" s="122" t="n">
-        <v>1185.05833333333</v>
+        <v>348.125</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1" s="304">
@@ -3805,16 +3805,16 @@
         </is>
       </c>
       <c r="C52" s="119" t="n">
-        <v>3853</v>
+        <v>3961</v>
       </c>
       <c r="D52" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E52" s="127" t="n">
-        <v>-0.5796727272727273</v>
+        <v>-0.5866782608695651</v>
       </c>
       <c r="F52" s="119" t="n">
-        <v>96.1666666666667</v>
+        <v>108.333333333333</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" s="304">
@@ -3829,16 +3829,16 @@
         </is>
       </c>
       <c r="C53" s="119" t="n">
-        <v>32049</v>
+        <v>32560</v>
       </c>
       <c r="D53" s="119" t="n">
-        <v>55916.6666666667</v>
+        <v>58458.3333333333</v>
       </c>
       <c r="E53" s="127" t="n">
-        <v>-0.4268435171385995</v>
+        <v>-0.4430220955096219</v>
       </c>
       <c r="F53" s="119" t="n">
-        <v>2819.90833333333</v>
+        <v>640.408333333333</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" s="304">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="C57" s="111" t="n">
-        <v>105565</v>
+        <v>107556</v>
       </c>
       <c r="D57" s="111" t="n">
-        <v>128333.333333333</v>
+        <v>134166.666666667</v>
       </c>
       <c r="E57" s="112" t="n">
-        <v>-0.1774155844155823</v>
+        <v>-0.1983403726708095</v>
       </c>
       <c r="F57" s="111" t="n">
-        <v>5683.59166666667</v>
+        <v>2229.95</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="C58" s="124" t="n">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D58" s="124" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="122" t="n">
-        <v>30.75</v>
+        <v>58.6666666666667</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1" s="304">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="C59" s="119" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D59" s="119" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="119" t="n">
-        <v>0</v>
+        <v>276.333333333333</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" s="304">
@@ -4021,16 +4021,16 @@
         </is>
       </c>
       <c r="C61" s="119" t="n">
-        <v>31620</v>
+        <v>32117</v>
       </c>
       <c r="D61" s="119" t="n">
-        <v>45833.3333333333</v>
+        <v>47916.6666666667</v>
       </c>
       <c r="E61" s="127" t="n">
-        <v>-0.3101090909090904</v>
+        <v>-0.329732173913044</v>
       </c>
       <c r="F61" s="119" t="n">
-        <v>1201.54166666667</v>
+        <v>653.25</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1" s="304">
@@ -4045,16 +4045,16 @@
         </is>
       </c>
       <c r="C62" s="119" t="n">
-        <v>24943</v>
+        <v>24910</v>
       </c>
       <c r="D62" s="119" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E62" s="127" t="n">
-        <v>-0.09298181818181817</v>
+        <v>-0.1335652173913043</v>
       </c>
       <c r="F62" s="119" t="n">
-        <v>950.583333333333</v>
+        <v>449.083333333333</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" s="304">
@@ -4069,16 +4069,16 @@
         </is>
       </c>
       <c r="C63" s="115" t="n">
-        <v>6865</v>
+        <v>7105</v>
       </c>
       <c r="D63" s="115" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E63" s="127" t="n">
-        <v>-0.5007272727272727</v>
+        <v>-0.5057391304347827</v>
       </c>
       <c r="F63" s="115" t="n">
-        <v>316.25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" s="304">
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="C64" s="111" t="n">
-        <v>85281</v>
+        <v>86909</v>
       </c>
       <c r="D64" s="111" t="n">
-        <v>119166.666666667</v>
+        <v>124583.333333333</v>
       </c>
       <c r="E64" s="112" t="n">
-        <v>-0.2843552447552468</v>
+        <v>-0.3024026755852823</v>
       </c>
       <c r="F64" s="111" t="n">
-        <v>3665.99166666667</v>
+        <v>2563.625</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -4117,16 +4117,16 @@
         </is>
       </c>
       <c r="C65" s="124" t="n">
-        <v>32598</v>
+        <v>33592</v>
       </c>
       <c r="D65" s="124" t="n">
-        <v>45833.3333333333</v>
+        <v>47916.6666666667</v>
       </c>
       <c r="E65" s="123" t="n">
-        <v>-0.2887709090909085</v>
+        <v>-0.2989495652173918</v>
       </c>
       <c r="F65" s="122" t="n">
-        <v>2042.21666666667</v>
+        <v>1215.95</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" s="304">
@@ -4141,16 +4141,16 @@
         </is>
       </c>
       <c r="C66" s="119" t="n">
-        <v>5407</v>
+        <v>5422</v>
       </c>
       <c r="D66" s="119" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E66" s="127" t="n">
-        <v>-0.4101454545454547</v>
+        <v>-0.4342260869565215</v>
       </c>
       <c r="F66" s="119" t="n">
-        <v>1011.33333333333</v>
+        <v>69.0833333333333</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" s="304">
@@ -4165,16 +4165,16 @@
         </is>
       </c>
       <c r="C67" s="119" t="n">
-        <v>22030</v>
+        <v>22537</v>
       </c>
       <c r="D67" s="119" t="n">
-        <v>32083.3333333333</v>
+        <v>33541.6666666667</v>
       </c>
       <c r="E67" s="127" t="n">
-        <v>-0.3133506493506486</v>
+        <v>-0.3280894409937894</v>
       </c>
       <c r="F67" s="119" t="n">
-        <v>992.908333333333</v>
+        <v>895.408333333334</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" s="304">
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C71" s="111" t="n">
-        <v>106640</v>
+        <v>109212</v>
       </c>
       <c r="D71" s="111" t="n">
-        <v>132916.666666667</v>
+        <v>138958.333333333</v>
       </c>
       <c r="E71" s="112" t="n">
-        <v>-0.1976927899686541</v>
+        <v>-0.2140665667166397</v>
       </c>
       <c r="F71" s="111" t="n">
-        <v>6158.49166666667</v>
+        <v>3383.44166666667</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -4357,16 +4357,16 @@
         </is>
       </c>
       <c r="C75" s="119" t="n">
-        <v>47832</v>
+        <v>50179</v>
       </c>
       <c r="D75" s="119" t="n">
-        <v>64166.6666666667</v>
+        <v>67083.3333333333</v>
       </c>
       <c r="E75" s="127" t="n">
-        <v>-0.2545662337662341</v>
+        <v>-0.2519900621118009</v>
       </c>
       <c r="F75" s="119" t="n">
-        <v>2738.41666666667</v>
+        <v>2439.375</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" s="304">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="C76" s="119" t="n">
-        <v>25625</v>
+        <v>25060</v>
       </c>
       <c r="D76" s="119" t="n">
-        <v>32083.3333333333</v>
+        <v>33541.6666666667</v>
       </c>
       <c r="E76" s="127" t="n">
-        <v>-0.2012987012987004</v>
+        <v>-0.252869565217392</v>
       </c>
       <c r="F76" s="119" t="n">
-        <v>4319.75</v>
+        <v>908.583333333333</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" s="304">
@@ -4405,16 +4405,16 @@
         </is>
       </c>
       <c r="C77" s="115" t="n">
-        <v>11188</v>
+        <v>12669</v>
       </c>
       <c r="D77" s="115" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E77" s="127" t="n">
-        <v>-0.5931636363636363</v>
+        <v>-0.5593391304347826</v>
       </c>
       <c r="F77" s="115" t="n">
-        <v>0</v>
+        <v>1481.66666666667</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" s="304">
@@ -4429,16 +4429,16 @@
         </is>
       </c>
       <c r="C78" s="111" t="n">
-        <v>129295</v>
+        <v>134112</v>
       </c>
       <c r="D78" s="111" t="n">
-        <v>155833.333333333</v>
+        <v>162916.666666667</v>
       </c>
       <c r="E78" s="112" t="n">
-        <v>-0.1702994652406399</v>
+        <v>-0.1768061381074186</v>
       </c>
       <c r="F78" s="111" t="n">
-        <v>8868.200000000001</v>
+        <v>6402.725</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" s="304" thickBot="1">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C82" s="119" t="n">
-        <v>46555</v>
+        <v>47339</v>
       </c>
       <c r="D82" s="119" t="n">
-        <v>64166.6666666667</v>
+        <v>67083.3333333333</v>
       </c>
       <c r="E82" s="127" t="n">
-        <v>-0.2744675324675329</v>
+        <v>-0.2943254658385089</v>
       </c>
       <c r="F82" s="119" t="n">
         <v>0</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="C83" s="119" t="n">
-        <v>33388</v>
+        <v>33521</v>
       </c>
       <c r="D83" s="119" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E83" s="127" t="n">
-        <v>-0.08941818181818262</v>
+        <v>-0.1255391304347818</v>
       </c>
       <c r="F83" s="119" t="n">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>8080</v>
       </c>
       <c r="D84" s="115" t="n">
-        <v>18333.3333333333</v>
+        <v>19166.6666666667</v>
       </c>
       <c r="E84" s="127" t="n">
-        <v>-0.5592727272727265</v>
+        <v>-0.5784347826086964</v>
       </c>
       <c r="F84" s="115" t="n">
         <v>0</v>
@@ -4597,13 +4597,13 @@
         </is>
       </c>
       <c r="C85" s="111" t="n">
-        <v>132414</v>
+        <v>134621</v>
       </c>
       <c r="D85" s="111" t="n">
-        <v>165000</v>
+        <v>172500</v>
       </c>
       <c r="E85" s="112" t="n">
-        <v>-0.1974909090909091</v>
+        <v>-0.2195884057971015</v>
       </c>
       <c r="F85" s="111" t="n">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         </is>
       </c>
       <c r="C86" s="178" t="n">
-        <v>44070</v>
+        <v>44561</v>
       </c>
       <c r="D86" s="178" t="n">
-        <v>50416.6666666667</v>
+        <v>52708.3333333333</v>
       </c>
       <c r="E86" s="179" t="n">
-        <v>-0.1258842975206618</v>
+        <v>-0.1545739130434777</v>
       </c>
       <c r="F86" s="180" t="n">
         <v>0</v>
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="C87" s="186" t="n">
-        <v>2870</v>
+        <v>3054</v>
       </c>
       <c r="D87" s="186" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E87" s="187" t="n">
-        <v>-0.686909090909091</v>
+        <v>-0.6813217391304347</v>
       </c>
       <c r="F87" s="188" t="n">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="C88" s="186" t="n">
-        <v>16377</v>
+        <v>16512</v>
       </c>
       <c r="D88" s="186" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E88" s="187" t="n">
-        <v>-0.5533545454545459</v>
+        <v>-0.5692521739130432</v>
       </c>
       <c r="F88" s="188" t="n">
         <v>0</v>
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="C92" s="186" t="n">
-        <v>94548</v>
+        <v>96252</v>
       </c>
       <c r="D92" s="186" t="n">
-        <v>137500</v>
+        <v>143750</v>
       </c>
       <c r="E92" s="187" t="n">
-        <v>-0.3123781818181818</v>
+        <v>-0.3304208695652174</v>
       </c>
       <c r="F92" s="188" t="n">
         <v>0</v>
@@ -4789,13 +4789,13 @@
         </is>
       </c>
       <c r="C93" s="186" t="n">
-        <v>0</v>
+        <v>30777</v>
       </c>
       <c r="D93" s="186" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E93" s="187" t="n">
-        <v>-1</v>
+        <v>-0.1971217391304341</v>
       </c>
       <c r="F93" s="188" t="n">
         <v>0</v>
@@ -4813,13 +4813,13 @@
         </is>
       </c>
       <c r="C94" s="186" t="n">
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="D94" s="186" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="E94" s="187" t="n">
-        <v>-1</v>
+        <v>-0.2876521739130434</v>
       </c>
       <c r="F94" s="188" t="n">
         <v>0</v>
@@ -4837,13 +4837,13 @@
         </is>
       </c>
       <c r="C95" s="186" t="n">
-        <v>0</v>
+        <v>17346</v>
       </c>
       <c r="D95" s="186" t="n">
-        <v>34833.3333333333</v>
+        <v>36416.6666666667</v>
       </c>
       <c r="E95" s="187" t="n">
-        <v>-1</v>
+        <v>-0.5236796338672773</v>
       </c>
       <c r="F95" s="188" t="n">
         <v>0</v>
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="C96" s="186" t="n">
-        <v>0</v>
+        <v>41614</v>
       </c>
       <c r="D96" s="186" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E96" s="187" t="n">
-        <v>-1</v>
+        <v>0.08558260869565304</v>
       </c>
       <c r="F96" s="188" t="n">
         <v>0</v>
@@ -4885,13 +4885,13 @@
         </is>
       </c>
       <c r="C97" s="186" t="n">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="D97" s="186" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E97" s="187" t="n">
-        <v>-1</v>
+        <v>0.1895652173913043</v>
       </c>
       <c r="F97" s="188" t="n">
         <v>0</v>
@@ -4909,13 +4909,13 @@
         </is>
       </c>
       <c r="C98" s="186" t="n">
-        <v>0</v>
+        <v>7847</v>
       </c>
       <c r="D98" s="186" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E98" s="187" t="n">
-        <v>-1</v>
+        <v>-0.4541217391304347</v>
       </c>
       <c r="F98" s="188" t="n">
         <v>0</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="C99" s="130" t="n">
-        <v>0</v>
+        <v>190790</v>
       </c>
       <c r="D99" s="130" t="n">
-        <v>183333.333333333</v>
+        <v>191666.666666667</v>
       </c>
       <c r="E99" s="110" t="n">
-        <v>-1</v>
+        <v>-0.004573913043479982</v>
       </c>
       <c r="F99" s="130" t="n">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="C100" s="130" t="n">
-        <v>0</v>
+        <v>18816</v>
       </c>
       <c r="D100" s="130" t="n">
-        <v>41250</v>
+        <v>43125</v>
       </c>
       <c r="E100" s="110" t="n">
-        <v>-1</v>
+        <v>-0.5636869565217391</v>
       </c>
       <c r="F100" s="130" t="n">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         </is>
       </c>
       <c r="C101" s="130" t="n">
-        <v>0</v>
+        <v>2926</v>
       </c>
       <c r="D101" s="130" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E101" s="110" t="n">
-        <v>-1</v>
+        <v>-0.6946782608695652</v>
       </c>
       <c r="F101" s="130" t="n">
         <v>0</v>
@@ -5005,13 +5005,13 @@
         </is>
       </c>
       <c r="C102" s="130" t="n">
-        <v>0</v>
+        <v>14997</v>
       </c>
       <c r="D102" s="130" t="n">
-        <v>56833.3333333333</v>
+        <v>59416.6666666667</v>
       </c>
       <c r="E102" s="110" t="n">
-        <v>-1</v>
+        <v>-0.7475960729312765</v>
       </c>
       <c r="F102" s="130" t="n">
         <v>0</v>
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="C103" s="130" t="n">
-        <v>0</v>
+        <v>28947</v>
       </c>
       <c r="D103" s="130" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E103" s="110" t="n">
-        <v>-1</v>
+        <v>-0.2448608695652167</v>
       </c>
       <c r="F103" s="130" t="n">
         <v>0</v>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="C104" s="130" t="n">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="D104" s="130" t="n">
-        <v>22916.6666666667</v>
+        <v>23958.3333333333</v>
       </c>
       <c r="E104" s="110" t="n">
-        <v>-1</v>
+        <v>-0.07339130434782482</v>
       </c>
       <c r="F104" s="130" t="n">
         <v>0</v>
@@ -5077,13 +5077,13 @@
         </is>
       </c>
       <c r="C105" s="130" t="n">
-        <v>0</v>
+        <v>3886</v>
       </c>
       <c r="D105" s="130" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E105" s="110" t="n">
-        <v>-1</v>
+        <v>-0.7296695652173912</v>
       </c>
       <c r="F105" s="130" t="n">
         <v>0</v>
@@ -5101,13 +5101,13 @@
         </is>
       </c>
       <c r="C106" s="130" t="n">
-        <v>0</v>
+        <v>135834</v>
       </c>
       <c r="D106" s="130" t="n">
-        <v>229166.666666667</v>
+        <v>239583.333333333</v>
       </c>
       <c r="E106" s="110" t="n">
-        <v>-1</v>
+        <v>-0.4330406956521731</v>
       </c>
       <c r="F106" s="130" t="n">
         <v>0</v>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C107" s="130" t="n">
-        <v>0</v>
+        <v>16972</v>
       </c>
       <c r="D107" s="130" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E107" s="110" t="n">
-        <v>-1</v>
+        <v>-0.4096695652173913</v>
       </c>
       <c r="F107" s="130" t="n">
         <v>0</v>
@@ -5149,13 +5149,13 @@
         </is>
       </c>
       <c r="C108" s="130" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="D108" s="130" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E108" s="110" t="n">
-        <v>-1</v>
+        <v>-0.6163130434782608</v>
       </c>
       <c r="F108" s="130" t="n">
         <v>0</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="C109" s="130" t="n">
-        <v>0</v>
+        <v>13599</v>
       </c>
       <c r="D109" s="130" t="n">
-        <v>29333.3333333333</v>
+        <v>30666.6666666667</v>
       </c>
       <c r="E109" s="110" t="n">
-        <v>-1</v>
+        <v>-0.5565543478260875</v>
       </c>
       <c r="F109" s="130" t="n">
         <v>0</v>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C110" s="130" t="n">
-        <v>0</v>
+        <v>21144</v>
       </c>
       <c r="D110" s="130" t="n">
-        <v>27500</v>
+        <v>28750</v>
       </c>
       <c r="E110" s="110" t="n">
-        <v>-1</v>
+        <v>-0.2645565217391305</v>
       </c>
       <c r="F110" s="130" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="C111" s="130" t="n">
-        <v>0</v>
+        <v>17577</v>
       </c>
       <c r="D111" s="130" t="n">
-        <v>18333.3333333333</v>
+        <v>19166.6666666667</v>
       </c>
       <c r="E111" s="110" t="n">
-        <v>-1</v>
+        <v>-0.08293913043478418</v>
       </c>
       <c r="F111" s="130" t="n">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="C112" s="130" t="n">
-        <v>0</v>
+        <v>4107</v>
       </c>
       <c r="D112" s="130" t="n">
-        <v>13750</v>
+        <v>14375</v>
       </c>
       <c r="E112" s="110" t="n">
-        <v>-1</v>
+        <v>-0.714295652173913</v>
       </c>
       <c r="F112" s="130" t="n">
         <v>0</v>
@@ -5269,13 +5269,13 @@
         </is>
       </c>
       <c r="C113" s="130" t="n">
-        <v>0</v>
+        <v>118078</v>
       </c>
       <c r="D113" s="130" t="n">
-        <v>137500</v>
+        <v>143750</v>
       </c>
       <c r="E113" s="110" t="n">
-        <v>-1</v>
+        <v>-0.1785878260869566</v>
       </c>
       <c r="F113" s="130" t="n">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         </is>
       </c>
       <c r="C114" s="130" t="n">
-        <v>25485</v>
+        <v>28747</v>
       </c>
       <c r="D114" s="130" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E114" s="110" t="n">
-        <v>-0.3049545454545461</v>
+        <v>-0.2500782608695645</v>
       </c>
       <c r="F114" s="130" t="n">
         <v>0</v>
@@ -5317,13 +5317,13 @@
         </is>
       </c>
       <c r="C115" s="130" t="n">
-        <v>2523</v>
+        <v>3241</v>
       </c>
       <c r="D115" s="130" t="n">
-        <v>9166.66666666667</v>
+        <v>9583.33333333333</v>
       </c>
       <c r="E115" s="110" t="n">
-        <v>-0.7247636363636365</v>
+        <v>-0.6618086956521738</v>
       </c>
       <c r="F115" s="130" t="n">
         <v>0</v>
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="C116" s="130" t="n">
-        <v>19764</v>
+        <v>20012</v>
       </c>
       <c r="D116" s="130" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E116" s="110" t="n">
-        <v>-0.4609818181818187</v>
+        <v>-0.4779478260869561</v>
       </c>
       <c r="F116" s="130" t="n">
         <v>0</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="C117" s="130" t="n">
-        <v>45209</v>
+        <v>46944</v>
       </c>
       <c r="D117" s="130" t="n">
-        <v>55000</v>
+        <v>57500</v>
       </c>
       <c r="E117" s="110" t="n">
-        <v>-0.1780181818181819</v>
+        <v>-0.1835826086956521</v>
       </c>
       <c r="F117" s="130" t="n">
         <v>0</v>
@@ -5389,13 +5389,13 @@
         </is>
       </c>
       <c r="C118" s="130" t="n">
-        <v>22551</v>
+        <v>23084</v>
       </c>
       <c r="D118" s="130" t="n">
-        <v>36666.6666666667</v>
+        <v>38333.3333333333</v>
       </c>
       <c r="E118" s="110" t="n">
-        <v>-0.3849727272727278</v>
+        <v>-0.3978086956521734</v>
       </c>
       <c r="F118" s="130" t="n">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         </is>
       </c>
       <c r="C119" s="130" t="n">
-        <v>17058</v>
+        <v>17298</v>
       </c>
       <c r="D119" s="130" t="n">
-        <v>18333.3333333333</v>
+        <v>19166.6666666667</v>
       </c>
       <c r="E119" s="110" t="n">
-        <v>-0.06956363636363461</v>
+        <v>-0.09749565217391465</v>
       </c>
       <c r="F119" s="130" t="n">
         <v>0</v>
@@ -5437,13 +5437,13 @@
         </is>
       </c>
       <c r="C120" s="130" t="n">
-        <v>188405</v>
+        <v>196464</v>
       </c>
       <c r="D120" s="130" t="n">
-        <v>210833.333333333</v>
+        <v>220416.666666667</v>
       </c>
       <c r="E120" s="110" t="n">
-        <v>-0.1063794466403147</v>
+        <v>-0.1086699432892263</v>
       </c>
       <c r="F120" s="130" t="n">
         <v>0</v>
@@ -5461,16 +5461,16 @@
         </is>
       </c>
       <c r="C121" s="130" t="n">
-        <v>581169</v>
+        <v>584165</v>
       </c>
       <c r="D121" s="130" t="n">
-        <v>641666.666666667</v>
+        <v>670833.333333333</v>
       </c>
       <c r="E121" s="110" t="n">
-        <v>-0.09428207792207832</v>
+        <v>-0.1291950310559002</v>
       </c>
       <c r="F121" s="130" t="n">
-        <v>123453.475</v>
+        <v>126449.933333333</v>
       </c>
     </row>
     <row r="122" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5485,16 +5485,16 @@
         </is>
       </c>
       <c r="C122" s="130" t="n">
-        <v>46503</v>
+        <v>48843</v>
       </c>
       <c r="D122" s="130" t="n">
-        <v>36666.6666666666</v>
+        <v>38333.3333333334</v>
       </c>
       <c r="E122" s="110" t="n">
-        <v>0.2682636363636388</v>
+        <v>0.2741652173913021</v>
       </c>
       <c r="F122" s="130" t="n">
-        <v>4628</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="123" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C123" s="130" t="n">
-        <v>194969</v>
+        <v>192964</v>
       </c>
       <c r="D123" s="130" t="n">
-        <v>73333.3333333333</v>
+        <v>76666.6666666667</v>
       </c>
       <c r="E123" s="110" t="n">
-        <v>1.658668181818183</v>
+        <v>1.516921739130434</v>
       </c>
       <c r="F123" s="130" t="n">
         <v>27211.0108333333</v>
@@ -5533,16 +5533,16 @@
         </is>
       </c>
       <c r="C124" s="130" t="n">
-        <v>1234324</v>
+        <v>1233932</v>
       </c>
       <c r="D124" s="130" t="n">
-        <v>660000</v>
+        <v>690000</v>
       </c>
       <c r="E124" s="110" t="n">
-        <v>0.8701878787878787</v>
+        <v>0.7883072463768115</v>
       </c>
       <c r="F124" s="130" t="n">
-        <v>99479.34</v>
+        <v>88020.89999999999</v>
       </c>
     </row>
     <row r="125" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5557,16 +5557,16 @@
         </is>
       </c>
       <c r="C125" s="130" t="n">
-        <v>154881</v>
+        <v>155186</v>
       </c>
       <c r="D125" s="130" t="n">
-        <v>73333.3333333333</v>
+        <v>76666.6666666667</v>
       </c>
       <c r="E125" s="110" t="n">
-        <v>1.112013636363637</v>
+        <v>1.024165217391304</v>
       </c>
       <c r="F125" s="130" t="n">
-        <v>28053</v>
+        <v>28358</v>
       </c>
     </row>
     <row r="126" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5584,10 +5584,10 @@
         <v>44750</v>
       </c>
       <c r="D126" s="130" t="n">
-        <v>106333.333333333</v>
+        <v>111166.666666667</v>
       </c>
       <c r="E126" s="110" t="n">
-        <v>-0.5791536050156727</v>
+        <v>-0.5974512743628198</v>
       </c>
       <c r="F126" s="130" t="n">
         <v>8934.466666666671</v>
@@ -5605,16 +5605,16 @@
         </is>
       </c>
       <c r="C127" s="130" t="n">
-        <v>4061032</v>
+        <v>4097434</v>
       </c>
       <c r="D127" s="130" t="n">
-        <v>3666666.66666667</v>
+        <v>3833333.33333333</v>
       </c>
       <c r="E127" s="110" t="n">
-        <v>0.1075541818181809</v>
+        <v>0.06889582608695743</v>
       </c>
       <c r="F127" s="130" t="n">
-        <v>552059.9312616671</v>
+        <v>515352.250461667</v>
       </c>
     </row>
     <row r="128" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5629,16 +5629,16 @@
         </is>
       </c>
       <c r="C128" s="130" t="n">
-        <v>72106</v>
+        <v>173960</v>
       </c>
       <c r="D128" s="130" t="n">
-        <v>217250</v>
+        <v>227125</v>
       </c>
       <c r="E128" s="110" t="n">
-        <v>-0.66809666283084</v>
+        <v>-0.2340781507980187</v>
       </c>
       <c r="F128" s="130" t="n">
-        <v>1215.80833333333</v>
+        <v>406.791666666667</v>
       </c>
     </row>
     <row r="129" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5653,16 +5653,16 @@
         </is>
       </c>
       <c r="C129" s="130" t="n">
-        <v>8476</v>
+        <v>18005</v>
       </c>
       <c r="D129" s="130" t="n">
-        <v>50416.6666666667</v>
+        <v>52708.3333333333</v>
       </c>
       <c r="E129" s="110" t="n">
-        <v>-0.8318809917355373</v>
+        <v>-0.6584031620553357</v>
       </c>
       <c r="F129" s="130" t="n">
-        <v>96.1666666666667</v>
+        <v>384.666666666666</v>
       </c>
     </row>
     <row r="130" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5677,16 +5677,16 @@
         </is>
       </c>
       <c r="C130" s="130" t="n">
-        <v>86693</v>
+        <v>142386</v>
       </c>
       <c r="D130" s="130" t="n">
-        <v>239250</v>
+        <v>250125</v>
       </c>
       <c r="E130" s="110" t="n">
-        <v>-0.6376468129571577</v>
+        <v>-0.4307406296851575</v>
       </c>
       <c r="F130" s="130" t="n">
-        <v>3026.575</v>
+        <v>847.075</v>
       </c>
     </row>
     <row r="131" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="C131" s="130" t="n">
-        <v>79828</v>
+        <v>172562</v>
       </c>
       <c r="D131" s="130" t="n">
-        <v>192500</v>
+        <v>201250</v>
       </c>
       <c r="E131" s="110" t="n">
-        <v>-0.5853090909090909</v>
+        <v>-0.1425490683229814</v>
       </c>
       <c r="F131" s="130" t="n">
-        <v>1201.54166666667</v>
+        <v>653.25</v>
       </c>
     </row>
     <row r="132" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5725,16 +5725,16 @@
         </is>
       </c>
       <c r="C132" s="130" t="n">
-        <v>61259</v>
+        <v>154315</v>
       </c>
       <c r="D132" s="130" t="n">
-        <v>155833.333333333</v>
+        <v>162916.666666667</v>
       </c>
       <c r="E132" s="110" t="n">
-        <v>-0.6068941176470579</v>
+        <v>-0.0527979539641964</v>
       </c>
       <c r="F132" s="130" t="n">
-        <v>950.583333333333</v>
+        <v>449.083333333333</v>
       </c>
     </row>
     <row r="133" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="C133" s="130" t="n">
-        <v>16431</v>
+        <v>33618</v>
       </c>
       <c r="D133" s="130" t="n">
-        <v>82500</v>
+        <v>86250</v>
       </c>
       <c r="E133" s="110" t="n">
-        <v>-0.8008363636363636</v>
+        <v>-0.6102260869565217</v>
       </c>
       <c r="F133" s="130" t="n">
-        <v>316.25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" ht="14.25" customFormat="1" customHeight="1" s="181">
@@ -5773,16 +5773,16 @@
         </is>
       </c>
       <c r="C134" s="130" t="n">
-        <v>460328</v>
+        <v>994931</v>
       </c>
       <c r="D134" s="130" t="n">
-        <v>1265000</v>
+        <v>1322500</v>
       </c>
       <c r="E134" s="110" t="n">
-        <v>-0.6361043478260869</v>
+        <v>-0.247689224952741</v>
       </c>
       <c r="F134" s="130" t="n">
-        <v>9641.750000000009</v>
+        <v>5085.74166666667</v>
       </c>
     </row>
     <row r="135">
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="C135" s="130" t="n">
-        <v>105253</v>
+        <v>176567</v>
       </c>
       <c r="D135" s="130" t="n">
-        <v>238333.333333333</v>
+        <v>249166.666666667</v>
       </c>
       <c r="E135" s="110" t="n">
-        <v>-0.5583790209790204</v>
+        <v>-0.2913698996655528</v>
       </c>
       <c r="F135" s="130" t="n">
-        <v>2042.21666666667</v>
+        <v>1215.95</v>
       </c>
     </row>
     <row r="136">
@@ -5821,16 +5821,16 @@
         </is>
       </c>
       <c r="C136" s="130" t="n">
-        <v>11789</v>
+        <v>23407</v>
       </c>
       <c r="D136" s="130" t="n">
-        <v>51333.3333333334</v>
+        <v>53666.6666666667</v>
       </c>
       <c r="E136" s="110" t="n">
-        <v>-0.7703441558441562</v>
+        <v>-0.5638447204968947</v>
       </c>
       <c r="F136" s="130" t="n">
-        <v>1011.33333333333</v>
+        <v>69.0833333333333</v>
       </c>
     </row>
     <row r="137">
@@ -5845,16 +5845,16 @@
         </is>
       </c>
       <c r="C137" s="130" t="n">
-        <v>62725</v>
+        <v>109560</v>
       </c>
       <c r="D137" s="130" t="n">
-        <v>226416.666666667</v>
+        <v>236708.333333333</v>
       </c>
       <c r="E137" s="110" t="n">
-        <v>-0.7229665071770339</v>
+        <v>-0.5371519098750213</v>
       </c>
       <c r="F137" s="130" t="n">
-        <v>992.908333333333</v>
+        <v>895.408333333334</v>
       </c>
     </row>
     <row r="138">
@@ -5869,16 +5869,16 @@
         </is>
       </c>
       <c r="C138" s="130" t="n">
-        <v>148826</v>
+        <v>245398</v>
       </c>
       <c r="D138" s="130" t="n">
-        <v>284166.666666667</v>
+        <v>297083.333333333</v>
       </c>
       <c r="E138" s="110" t="n">
-        <v>-0.4762721407624639</v>
+        <v>-0.1739758765778392</v>
       </c>
       <c r="F138" s="130" t="n">
-        <v>2769.79166666667</v>
+        <v>2470.75</v>
       </c>
     </row>
     <row r="139">
@@ -5893,16 +5893,16 @@
         </is>
       </c>
       <c r="C139" s="130" t="n">
-        <v>83998</v>
+        <v>158077</v>
       </c>
       <c r="D139" s="130" t="n">
-        <v>174166.666666667</v>
+        <v>182083.333333333</v>
       </c>
       <c r="E139" s="110" t="n">
-        <v>-0.5177148325358861</v>
+        <v>-0.1318425629290602</v>
       </c>
       <c r="F139" s="130" t="n">
-        <v>4330.91666666667</v>
+        <v>919.75</v>
       </c>
     </row>
     <row r="140">
@@ -5917,16 +5917,16 @@
         </is>
       </c>
       <c r="C140" s="130" t="n">
-        <v>38234</v>
+        <v>55796</v>
       </c>
       <c r="D140" s="130" t="n">
-        <v>105416.666666667</v>
+        <v>110208.333333333</v>
       </c>
       <c r="E140" s="110" t="n">
-        <v>-0.6373059288537561</v>
+        <v>-0.4937224952741005</v>
       </c>
       <c r="F140" s="130" t="n">
-        <v>0</v>
+        <v>1481.66666666667</v>
       </c>
     </row>
     <row r="141">
@@ -5941,16 +5941,16 @@
         </is>
       </c>
       <c r="C141" s="130" t="n">
-        <v>651303</v>
+        <v>1115367</v>
       </c>
       <c r="D141" s="130" t="n">
-        <v>1352083.33333333</v>
+        <v>1413541.66666667</v>
       </c>
       <c r="E141" s="110" t="n">
-        <v>-0.5182967026194133</v>
+        <v>-0.210941547531321</v>
       </c>
       <c r="F141" s="130" t="n">
-        <v>15026.6916666667</v>
+        <v>9786.16666666667</v>
       </c>
     </row>
     <row r="142">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="C142" s="130" t="n">
-        <v>758530</v>
+        <v>934695</v>
       </c>
       <c r="D142" s="130" t="n">
-        <v>1097250</v>
+        <v>1147125</v>
       </c>
       <c r="E142" s="110" t="n">
-        <v>-0.3086990202779677</v>
+        <v>-0.1851847008826414</v>
       </c>
       <c r="F142" s="130" t="n">
-        <v>126711.5</v>
+        <v>128072.675</v>
       </c>
     </row>
     <row r="143">
@@ -5989,16 +5989,16 @@
         </is>
       </c>
       <c r="C143" s="130" t="n">
-        <v>66768</v>
+        <v>90256</v>
       </c>
       <c r="D143" s="130" t="n">
-        <v>138416.666666667</v>
+        <v>144708.333333333</v>
       </c>
       <c r="E143" s="110" t="n">
-        <v>-0.5176303431667681</v>
+        <v>-0.3762902389864655</v>
       </c>
       <c r="F143" s="130" t="n">
-        <v>5735.5</v>
+        <v>7421.75</v>
       </c>
     </row>
     <row r="144">
@@ -6013,16 +6013,16 @@
         </is>
       </c>
       <c r="C144" s="130" t="n">
-        <v>344390</v>
+        <v>444911</v>
       </c>
       <c r="D144" s="130" t="n">
-        <v>539000</v>
+        <v>563500</v>
       </c>
       <c r="E144" s="110" t="n">
-        <v>-0.3610575139146568</v>
+        <v>-0.2104507542147294</v>
       </c>
       <c r="F144" s="130" t="n">
-        <v>31230.4941666667</v>
+        <v>28953.4941666667</v>
       </c>
     </row>
     <row r="145">
@@ -6037,16 +6037,16 @@
         </is>
       </c>
       <c r="C145" s="130" t="n">
-        <v>1462980</v>
+        <v>1651894</v>
       </c>
       <c r="D145" s="130" t="n">
-        <v>1136666.66666667</v>
+        <v>1188333.33333333</v>
       </c>
       <c r="E145" s="110" t="n">
-        <v>0.2870791788856266</v>
+        <v>0.3900931276297375</v>
       </c>
       <c r="F145" s="130" t="n">
-        <v>103450.673333333</v>
+        <v>91144.89999999999</v>
       </c>
     </row>
     <row r="146">
@@ -6061,16 +6061,16 @@
         </is>
       </c>
       <c r="C146" s="130" t="n">
-        <v>300140</v>
+        <v>467579</v>
       </c>
       <c r="D146" s="130" t="n">
-        <v>403333.333333333</v>
+        <v>421666.666666667</v>
       </c>
       <c r="E146" s="110" t="n">
-        <v>-0.2558512396694209</v>
+        <v>0.1088830039525683</v>
       </c>
       <c r="F146" s="130" t="n">
-        <v>33334.5</v>
+        <v>29726.8333333333</v>
       </c>
     </row>
     <row r="147">
@@ -6085,16 +6085,16 @@
         </is>
       </c>
       <c r="C147" s="130" t="n">
-        <v>99415</v>
+        <v>134165</v>
       </c>
       <c r="D147" s="130" t="n">
-        <v>294250</v>
+        <v>307625</v>
       </c>
       <c r="E147" s="110" t="n">
-        <v>-0.6621410365335598</v>
+        <v>-0.5638683462007315</v>
       </c>
       <c r="F147" s="130" t="n">
-        <v>9250.716666666671</v>
+        <v>10656.1333333333</v>
       </c>
     </row>
     <row r="148">
@@ -6109,16 +6109,16 @@
         </is>
       </c>
       <c r="C148" s="130" t="n">
-        <v>5172665</v>
+        <v>6207734</v>
       </c>
       <c r="D148" s="130" t="n">
-        <v>6283750</v>
+        <v>6569375</v>
       </c>
       <c r="E148" s="110" t="n">
-        <v>-0.1768187785955838</v>
+        <v>-0.05504952906478922</v>
       </c>
       <c r="F148" s="130" t="n">
-        <v>576728.3729283341</v>
+        <v>530224.158795001</v>
       </c>
     </row>
     <row r="149">
@@ -6133,13 +6133,13 @@
         </is>
       </c>
       <c r="C149" s="130" t="n">
-        <v>1891837</v>
+        <v>2378891</v>
       </c>
       <c r="D149" s="130" t="n">
-        <v>2750000</v>
+        <v>2875000</v>
       </c>
       <c r="E149" s="110" t="n">
-        <v>-0.3120592727272727</v>
+        <v>-0.172559652173913</v>
       </c>
       <c r="F149" s="130" t="n">
         <v>0</v>
@@ -6157,13 +6157,13 @@
         </is>
       </c>
       <c r="C150" s="130" t="n">
-        <v>2852333</v>
+        <v>3457490</v>
       </c>
       <c r="D150" s="130" t="n">
-        <v>2566666.66666667</v>
+        <v>2683333.33333333</v>
       </c>
       <c r="E150" s="110" t="n">
-        <v>0.1112985714285701</v>
+        <v>0.2885055900621132</v>
       </c>
       <c r="F150" s="130" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="C151" s="130" t="n">
-        <v>561960</v>
+        <v>594957</v>
       </c>
       <c r="D151" s="130" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="C154" s="130" t="n">
-        <v>443385</v>
+        <v>477923</v>
       </c>
       <c r="D154" s="130" t="n">
         <v>0</v>
